--- a/feed_converted.xlsx
+++ b/feed_converted.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E351"/>
+  <dimension ref="A1:E352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -719,7 +719,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>3240</v>
+        <v>3130</v>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
@@ -1580,7 +1580,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>2210</v>
+        <v>2100</v>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
@@ -1618,553 +1618,553 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Композиция 900</t>
+          <t>Илекс</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2170</v>
+        <v>550</v>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/900-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/907-s.jpeg</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/kompozitsiya-900.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/ileks.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Илекс</t>
+          <t>Букет 915</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>550</v>
+        <v>4280</v>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/907-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/915-s.jpeg</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/ileks.html</t>
+          <t>https://gift2gift.ru/catalog/mono_rozy/buket-915.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Букет 915</t>
+          <t>Букет 916</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>4280</v>
+        <v>3050</v>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/915-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/916-s.jpeg</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/mono_rozy/buket-915.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/buket-916.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Букет 916</t>
+          <t>Букет 924</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>3160</v>
+        <v>8530</v>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/916-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/925-s.jpeg</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/buket-916.html</t>
+          <t>https://gift2gift.ru/catalog/mono_rozy/924_925.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Букет 924</t>
+          <t>Букет 927</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>8530</v>
+        <v>10850</v>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/925-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/927-s.jpeg</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/mono_rozy/924_925.html</t>
+          <t>https://gift2gift.ru/catalog/monobukety/927.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Букет 927</t>
+          <t>Букет 928</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>10850</v>
+        <v>21750</v>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/927-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/928-s.jpeg</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/monobukety/927.html</t>
+          <t>https://gift2gift.ru/catalog/mono_rozy/buket-928.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Букет 928</t>
+          <t>Букет 929</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>21750</v>
+        <v>9840</v>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/928-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/929-s.jpeg</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/mono_rozy/buket-928.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-svyshe-5000/buket-929.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Букет 929</t>
+          <t>Букет 931</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>10170</v>
+        <v>14590</v>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/929-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/931-s.jpeg</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-svyshe-5000/buket-929.html</t>
+          <t>https://gift2gift.ru/catalog/mono_rozy/buket-931.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Букет 931</t>
+          <t>Композиция 934</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>14590</v>
+        <v>3860</v>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/931-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/934-s.jpeg</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/mono_rozy/buket-931.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/kompozitsiya-934.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Композиция 934</t>
+          <t>Букет из роз Mondial, размер М</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>3970</v>
+        <v>3690</v>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/934-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/950-s.jpeg</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/kompozitsiya-934.html</t>
+          <t>https://gift2gift.ru/catalog/mono_rozy/950.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Букет из роз Mondial, размер М</t>
+          <t>Букет из роз Mondial, размер L</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>3690</v>
+        <v>5130</v>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/950-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/951-s.jpeg</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/mono_rozy/950.html</t>
+          <t>https://gift2gift.ru/catalog/mono_rozy/951.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Букет из роз Mondial, размер L</t>
+          <t>Композиция 955</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>5130</v>
+        <v>2155</v>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/951-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/956-s.jpeg</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/mono_rozy/951.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/kompozitsiya-955.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Композиция 955</t>
+          <t>Букет 960</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2155</v>
+        <v>3250</v>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/956-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/960-s.jpeg</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/kompozitsiya-955.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket-960.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Букет 960</t>
+          <t>Букет 961</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>3250</v>
+        <v>4100</v>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/960-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/961-s.jpeg</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket-960.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket-961.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Букет 961</t>
+          <t>Букет 983</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>4100</v>
+        <v>2600</v>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/961-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/983-s.jpeg</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket-961.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket-983.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Букет 983</t>
+          <t>Композиция 991</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>2600</v>
+        <v>2100</v>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/983-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/991-s.jpeg</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket-983.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/kompozitsiya-991.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Композиция 991</t>
+          <t>Композиция 994</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>2320</v>
+        <v>2100</v>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/991-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/994-s.jpeg</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/kompozitsiya-991.html</t>
+          <t>https://gift2gift.ru/catalog/cvety_v_korobke/kompozitsiya-994.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Композиция 994</t>
+          <t>Букет 997</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>2100</v>
+        <v>4470</v>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/994-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/997-s.jpeg</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/cvety_v_korobke/kompozitsiya-994.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket-997.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Букет 997</t>
+          <t>Композиция 1001</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>4470</v>
+        <v>3125</v>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/997-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1001-s.jpeg</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket-997.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/kompozitsiya-1001.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Композиция 1001</t>
+          <t>Композиция 1002</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>3125</v>
+        <v>1625</v>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1001-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1002-s.jpeg</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/kompozitsiya-1001.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/kompozitsiya-1002.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Композиция 1002</t>
+          <t>Букет 1008</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>1625</v>
+        <v>3590</v>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1002-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1008-s.jpeg</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/kompozitsiya-1002.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket-1008.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Букет 1008</t>
+          <t>Букет 1011</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>3590</v>
+        <v>4850</v>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1008-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1011-s.jpeg</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket-1008.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket-1011.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Букет 1011</t>
+          <t>Букет 1012</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>4850</v>
+        <v>4280</v>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1011-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1012-s.jpeg</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket-1011.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket-1012.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Букет 1012</t>
+          <t>Букет 1013</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>4280</v>
+        <v>4580</v>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1012-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1013-s.jpeg</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket-1012.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket-1013.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Букет 1013</t>
+          <t>Композиция 1017</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>4580</v>
+        <v>2560</v>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1013-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1017-s.jpeg</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket-1013.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/kompozitsiya-1017.html</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Композиция 1017</t>
+          <t>Ваза с узорами, 26,5 см</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>2560</v>
+        <v>2800</v>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1017-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1048-s.jpeg</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/kompozitsiya-1017.html</t>
+          <t>https://gift2gift.ru/catalog/vazy-i-kashpo/vaza-s-uzorami-26-5-sm.html</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Ваза с узорами, 26,5 см</t>
+          <t>Ваза с узорами, 24 см</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -2173,40 +2173,40 @@
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1048-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1049-s.jpeg</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/vazy-i-kashpo/vaza-s-uzorami-26-5-sm.html</t>
+          <t>https://gift2gift.ru/catalog/vazy-i-kashpo/vaza-s-uzorami-24-sm.html</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Ваза с узорами, 24 см</t>
+          <t>Ваза цилиндр, зеленое стекло, 25,5 см</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1049-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1050-s.jpeg</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/vazy-i-kashpo/vaza-s-uzorami-24-sm.html</t>
+          <t>https://gift2gift.ru/catalog/vazy-i-kashpo/vaza-tsilindr-zelenoe-steklo-25-5-sm.html</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Ваза цилиндр, зеленое стекло, 25,5 см</t>
+          <t>Ваза цилиндр, серое стекло, 25,5 см</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -2215,40 +2215,40 @@
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1050-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1051-s.jpeg</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/vazy-i-kashpo/vaza-tsilindr-zelenoe-steklo-25-5-sm.html</t>
+          <t>https://gift2gift.ru/catalog/vazy-i-kashpo/vaza-tsilindr-seroe-steklo-25-5-sm.html</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Ваза цилиндр, серое стекло, 25,5 см</t>
+          <t>Ваза зеленое стекло, 20 см</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>2300</v>
+        <v>1800</v>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1051-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1052-s.jpeg</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/vazy-i-kashpo/vaza-tsilindr-seroe-steklo-25-5-sm.html</t>
+          <t>https://gift2gift.ru/catalog/vazy-i-kashpo/vaza-zelenoe-steklo-20-sm.html</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Ваза зеленое стекло, 20 см</t>
+          <t>Ваза серое стекло, 20 см</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -2257,40 +2257,40 @@
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1052-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1053-s.jpeg</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/vazy-i-kashpo/vaza-zelenoe-steklo-20-sm.html</t>
+          <t>https://gift2gift.ru/catalog/vazy-i-kashpo/vaza-seroe-steklo-20-sm.html</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Ваза серое стекло, 20 см</t>
+          <t>Ваза черная, 20см</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1053-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1054-s.jpeg</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/vazy-i-kashpo/vaza-seroe-steklo-20-sm.html</t>
+          <t>https://gift2gift.ru/catalog/vazy-i-kashpo/vaza-chernaya-20sm.html</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Ваза черная, 20см</t>
+          <t>Ваза цвета слоновой кости, 20 см</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -2299,4611 +2299,4611 @@
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1054-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1055-s.jpeg</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/vazy-i-kashpo/vaza-chernaya-20sm.html</t>
+          <t>https://gift2gift.ru/catalog/vazy-i-kashpo/vaza-tsveta-slonovoi-kosti-20-sm.html</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Ваза цвета слоновой кости, 20 см</t>
+          <t>Композиция 1082</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>1500</v>
+        <v>2580</v>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1055-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1082-s.jpeg</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/vazy-i-kashpo/vaza-tsveta-slonovoi-kosti-20-sm.html</t>
+          <t>https://gift2gift.ru/catalog/cvety_v_korobke/kompozitsiya___.html</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Композиция 1082</t>
+          <t>Композиция 1089</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>2580</v>
+        <v>2520</v>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1082-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1089-s.jpeg</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/cvety_v_korobke/kompozitsiya___.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/kompozitsiya____.html</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Композиция 1089</t>
+          <t>Композиция 1102</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2630</v>
+        <v>3020</v>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1089-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1102-s.jpeg</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/kompozitsiya____.html</t>
+          <t>https://gift2gift.ru/catalog/cvety_v_korobke/kompozitsiya_____.html</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Композиция 1102</t>
+          <t>Букет 1119</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>3130</v>
+        <v>3450</v>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1102-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1119-s.jpeg</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/cvety_v_korobke/kompozitsiya_____.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket______________.html</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Букет 1119</t>
+          <t>Композиция 1146</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>3690</v>
+        <v>2530</v>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1119-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1146-s.jpeg</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket______________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/kompozitsiya______.html</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Композиция 1146</t>
+          <t>Букет 1205</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>2530</v>
+        <v>3490</v>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1146-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1205-s.jpeg</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/kompozitsiya______.html</t>
+          <t>https://gift2gift.ru/catalog/buket____________________.html</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Букет 1205</t>
+          <t>Букет 1207</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>3490</v>
+        <v>3400</v>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1205-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1207-s.jpeg</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/buket____________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket_____________________.html</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Букет 1207</t>
+          <t>Композиция 1209</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>3400</v>
+        <v>2150</v>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1207-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1209-s.jpeg</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket_____________________.html</t>
+          <t>https://gift2gift.ru/catalog/cvety_v_korobke/kompozitsiya________.html</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Композиция 1209</t>
+          <t>Букет роз Pink Mondial,размер M</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>2230</v>
+        <v>3000</v>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1209-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1210-s.jpeg</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/cvety_v_korobke/kompozitsiya________.html</t>
+          <t>https://gift2gift.ru/catalog/monobukety/buket______________________.html</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Букет роз Pink Mondial,размер M</t>
+          <t>Букет 1212</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>3000</v>
+        <v>3850</v>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1210-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1212-s.jpeg</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/monobukety/buket______________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket________________________.html</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Букет 1212</t>
+          <t>Букет из кустовых роз Madam Bombastic,размер S</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>3850</v>
+        <v>3200</v>
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1212-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1214-s.jpeg</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket________________________.html</t>
+          <t>https://gift2gift.ru/catalog/mono_rozy/buket-1214.html</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Букет из кустовых роз Madam Bombastic,размер S</t>
+          <t>Букет 1222</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>3200</v>
+        <v>2400</v>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1214-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1222-s.jpeg</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/mono_rozy/buket-1214.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket__________________________.html</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Букет 1222</t>
+          <t>Букет 1223</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>2500</v>
+        <v>3440</v>
       </c>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1222-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1223-s.jpeg</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket__________________________.html</t>
+          <t>https://gift2gift.ru/catalog/buket___________________________.html</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Букет 1223</t>
+          <t>Букет 1225</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>3440</v>
+        <v>2720</v>
       </c>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1223-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1225-s.jpeg</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/buket___________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/buket_____________________________.html</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Букет 1225</t>
+          <t>Композиция 1226</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>2720</v>
+        <v>2470</v>
       </c>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1225-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1226-s.jpeg</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/buket_____________________________.html</t>
+          <t>https://gift2gift.ru/catalog/kompozitsiya_________.html</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Композиция 1226</t>
+          <t>Букет 1227</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>2470</v>
+        <v>4620</v>
       </c>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1226-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1227-s.jpeg</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/kompozitsiya_________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket______________________________.html</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Букет 1227</t>
+          <t>Букет роз Mandarin, размер M</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>4620</v>
+        <v>3780</v>
       </c>
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1227-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1229-s.jpeg</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket______________________________.html</t>
+          <t>https://gift2gift.ru/catalog/mono_rozy/buket-1229.html</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Букет роз Mandarin, размер M</t>
+          <t>Букет 1231</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>3780</v>
+        <v>2750</v>
       </c>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1229-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1231-s.jpeg</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/mono_rozy/buket-1229.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/buket_______________________________.html</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Букет 1231</t>
+          <t>Букет 1232</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>2750</v>
+        <v>5230</v>
       </c>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1231-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1232-s.jpeg</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/buket_______________________________.html</t>
+          <t>https://gift2gift.ru/catalog/buket________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Букет 1232</t>
+          <t>Букет 1234</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>5230</v>
+        <v>2400</v>
       </c>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1232-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1234-s.jpeg</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/buket________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket_______________________.html</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Букет 1234</t>
+          <t>Букет 1235</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>2400</v>
+        <v>2950</v>
       </c>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1234-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1235-s.jpeg</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket_______________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/buket__________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Букет 1235</t>
+          <t>Букет 1236</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>2950</v>
+        <v>2100</v>
       </c>
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1235-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1236-s.jpeg</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/buket__________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/buket___________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Букет 1236</t>
+          <t>Букет 1237</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>2100</v>
+        <v>4820</v>
       </c>
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1236-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1237-s.jpeg</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/buket___________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket____________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Букет 1237</t>
+          <t>Композиция 1238</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>4820</v>
+        <v>2300</v>
       </c>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1237-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1238-s.jpeg</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket____________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/cvety_v_korobke/kompozitsiya__________.html</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Композиция 1238</t>
+          <t>Букет 1252</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>2300</v>
+        <v>2820</v>
       </c>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1238-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1252-s.jpeg</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/cvety_v_korobke/kompozitsiya__________.html</t>
+          <t>https://gift2gift.ru/catalog/buket_____________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Букет 1252</t>
+          <t>Букет 1253</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>2820</v>
+        <v>4950</v>
       </c>
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1252-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1253-s.jpeg</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/buket_____________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket______________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Букет 1253</t>
+          <t>Букет 1254</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>4950</v>
+        <v>4150</v>
       </c>
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1253-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1254-s.jpeg</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket______________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket_______________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Букет 1254</t>
+          <t>Композиция 1255</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>4150</v>
+        <v>2470</v>
       </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1254-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1255-s.jpeg</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket_______________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/cvety_v_korobke/kompozitsiya___________.html</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Композиция 1255</t>
+          <t>Букет 1258</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>2470</v>
+        <v>4500</v>
       </c>
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1255-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1258-s.jpeg</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/cvety_v_korobke/kompozitsiya___________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket__________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Букет 1258</t>
+          <t>Букет 1000</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>4500</v>
+        <v>4460</v>
       </c>
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1258-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1274.jpeg</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket__________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-1000_1274.html</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Букет 1000</t>
+          <t>Букет 1005</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>4460</v>
+        <v>3700</v>
       </c>
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1274.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1276.jpeg</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-1000_1274.html</t>
+          <t>https://gift2gift.ru/catalog/monobukety/buket-1005_1276.html</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Букет 1005</t>
+          <t>Букет 1016</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>3700</v>
+        <v>4760</v>
       </c>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1276.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1277.jpeg</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/monobukety/buket-1005_1276.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-1016_1277.html</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Букет 1016</t>
+          <t>Букет 1029</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>4760</v>
+        <v>4550</v>
       </c>
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1277.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1279.jpeg</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-1016_1277.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-1029_1279.html</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Букет 1029</t>
+          <t>Букет 1030</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>4550</v>
+        <v>2900</v>
       </c>
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1279.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1280.jpeg</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-1029_1279.html</t>
+          <t>https://gift2gift.ru/catalog/monobukety/buket-1030_1280.html</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Букет 1030</t>
+          <t>Букет 1033</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>2900</v>
+        <v>3650</v>
       </c>
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1280.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1281.jpeg</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/monobukety/buket-1030_1280.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket-1033_1281.html</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Букет 1033</t>
+          <t>Букет 1034</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>3650</v>
+        <v>3450</v>
       </c>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1281.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1282.jpeg</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket-1033_1281.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket-1034_1282.html</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Букет 1034</t>
+          <t>Букет 1035</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>3450</v>
+        <v>3800</v>
       </c>
       <c r="C126" t="inlineStr"/>
       <c r="D126" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1282.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1286.jpeg</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket-1034_1282.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket-1035_1286.html</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Букет 1035</t>
+          <t>Букет 1036</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>3800</v>
+        <v>4300</v>
       </c>
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1286.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1287.jpeg</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket-1035_1286.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket-1036_1287.html</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Букет 1036</t>
+          <t>Букет 1037</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>4400</v>
+        <v>3400</v>
       </c>
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1287.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1288.jpeg</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket-1036_1287.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket-1037_1288.html</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Букет 1037</t>
+          <t>Букет 1039</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>3400</v>
+        <v>4100</v>
       </c>
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1288.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1290.jpeg</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket-1037_1288.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket-1039_1290.html</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Букет 1039</t>
+          <t>Букет 1040</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>4100</v>
+        <v>3750</v>
       </c>
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1290.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1291.jpeg</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket-1039_1290.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket-1040_1291.html</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Букет 1040</t>
+          <t>Букет 1041</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>3750</v>
+        <v>2500</v>
       </c>
       <c r="C131" t="inlineStr"/>
       <c r="D131" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1291.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1292.jpeg</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket-1040_1291.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket-1041_1292.html</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Букет 1041</t>
+          <t>Букет 1043</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>2500</v>
+        <v>4350</v>
       </c>
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1292.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1293.jpeg</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket-1041_1292.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-1043_1293.html</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Букет 1043</t>
+          <t>Букет 1047</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>4450</v>
+        <v>3050</v>
       </c>
       <c r="C133" t="inlineStr"/>
       <c r="D133" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1293.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1295.jpeg</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-1043_1293.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-1047_1295.html</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Букет 1047</t>
+          <t>Букет 1059</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>3270</v>
+        <v>3150</v>
       </c>
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1295.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1296.jpeg</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-1047_1295.html</t>
+          <t>https://gift2gift.ru/catalog/monobukety/kopiya-buket-1059.html</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Букет 1059</t>
+          <t>Букет 1061</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>3150</v>
+        <v>4230</v>
       </c>
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1296.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1298.jpeg</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/monobukety/kopiya-buket-1059.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket-1061_1298.html</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Букет 1061</t>
+          <t>Дуо-букет из диантусов и танацетума,размер М</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>4230</v>
+        <v>2850</v>
       </c>
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1298.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1299-s.jpeg</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket-1061_1298.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-1062_1299.html</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Дуо-букет из диантусов и танацетума,размер М</t>
+          <t>Букет 1063</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>3010</v>
+        <v>3000</v>
       </c>
       <c r="C137" t="inlineStr"/>
       <c r="D137" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1299-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1300.jpeg</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-1062_1299.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket-1063_1300.html</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Букет 1063</t>
+          <t>Букет 1064</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>3000</v>
+        <v>3700</v>
       </c>
       <c r="C138" t="inlineStr"/>
       <c r="D138" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1300.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1301.jpeg</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket-1063_1300.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket-1064_1301.html</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Букет 1064</t>
+          <t>Букет 1065</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>3800</v>
+        <v>2550</v>
       </c>
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1301.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1302.jpeg</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket-1064_1301.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket-1065_1302.html</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Букет 1065</t>
+          <t>Букет 1066</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>2550</v>
+        <v>5340</v>
       </c>
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1302.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1303.jpeg</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket-1065_1302.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-svyshe-5000/buket-1066_1303.html</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Букет 1066</t>
+          <t>Букет 1068</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>5440</v>
+        <v>4900</v>
       </c>
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1303.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1304.jpeg</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-svyshe-5000/buket-1066_1303.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-1068.html</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Букет 1068</t>
+          <t>Букет 1069</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>4900</v>
+        <v>3710</v>
       </c>
       <c r="C142" t="inlineStr"/>
       <c r="D142" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1304.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1305.jpeg</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-1068.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-1069.html</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Букет 1069</t>
+          <t>Букет 1070</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>3930</v>
+        <v>3550</v>
       </c>
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1305.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1306.jpeg</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-1069.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-1070.html</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Букет 1070</t>
+          <t>Букет 1071</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>3550</v>
+        <v>5060</v>
       </c>
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1306.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1308.jpeg</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-1070.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-1071.html</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Букет 1071</t>
+          <t>Букет 1072</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>5060</v>
+        <v>4010</v>
       </c>
       <c r="C145" t="inlineStr"/>
       <c r="D145" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1308.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1309.jpeg</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-1071.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-1072.html</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Букет 1072</t>
+          <t>Букет 1074</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>4010</v>
+        <v>5240</v>
       </c>
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1309.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1310.jpeg</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-1072.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket-1074_1310.html</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Букет 1074</t>
+          <t>Букет 1075</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>5350</v>
+        <v>3150</v>
       </c>
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1310.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1311.jpeg</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket-1074_1310.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket-1075_1311.html</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Букет 1075</t>
+          <t>Букет 1076</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>3150</v>
+        <v>4250</v>
       </c>
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1311.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1312.jpeg</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket-1075_1311.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket-1076_1312.html</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Букет 1076</t>
+          <t>Букет 1083</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>4250</v>
+        <v>4470</v>
       </c>
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1312.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1313.jpeg</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket-1076_1312.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-1083.html</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Букет 1083</t>
+          <t>Букет 1091</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>4470</v>
+        <v>3400</v>
       </c>
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1313.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1315.jpeg</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-1083.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket-1091.html</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Букет 1091</t>
+          <t>Букет 1092</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>3510</v>
+        <v>4250</v>
       </c>
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1315.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1316.jpeg</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket-1091.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket-1092.html</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Букет 1092</t>
+          <t>Букет 1322</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>4350</v>
+        <v>3650</v>
       </c>
       <c r="C152" t="inlineStr"/>
       <c r="D152" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1316.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1322-s.jpeg</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket-1092.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket_____________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Букет 1322</t>
+          <t>Букет 1101</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>3650</v>
+        <v>3200</v>
       </c>
       <c r="C153" t="inlineStr"/>
       <c r="D153" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1322-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1341.jpeg</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket_____________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/buket-1101.html</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Букет 1101</t>
+          <t>Букет из кустовых гвоздик</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>3200</v>
+        <v>2350</v>
       </c>
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1341.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1344-s.jpeg</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/buket-1101.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/buket-392.html</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Букет из кустовых гвоздик</t>
+          <t>Букет 1086</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>2350</v>
+        <v>4725</v>
       </c>
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1344-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1350.jpeg</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/buket-392.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-1086.html</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Букет 1086</t>
+          <t>Букет 1088</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>4845</v>
+        <v>4030</v>
       </c>
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1350.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1351.jpeg</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-1086.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-1088.html</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Букет 1088</t>
+          <t>Букет 1090</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>4130</v>
+        <v>3650</v>
       </c>
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1351.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1352.jpeg</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-1088.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-1090.html</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Букет 1090</t>
+          <t>Букет 1100</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>3650</v>
+        <v>3600</v>
       </c>
       <c r="C158" t="inlineStr"/>
       <c r="D158" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1352.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1353.jpeg</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-1090.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-1100.html</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Букет 1100</t>
+          <t>Композиция 1354</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>3600</v>
+        <v>2255</v>
       </c>
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1353.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1354-s.jpeg</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-1100.html</t>
+          <t>https://gift2gift.ru/catalog/cvety_v_korobke/kompozitsiya____________.html</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Композиция 1354</t>
+          <t>Букет 1355</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>2255</v>
+        <v>2950</v>
       </c>
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1354-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1355-s.jpeg</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/cvety_v_korobke/kompozitsiya____________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Букет 1355</t>
+          <t>Букет 1356</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>3050</v>
+        <v>3230</v>
       </c>
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1355-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1356-s.jpeg</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket-1356.html</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Букет 1356</t>
+          <t>Букет 249</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>3450</v>
+        <v>7850</v>
       </c>
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1356-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1357.JPG</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket-1356.html</t>
+          <t>https://gift2gift.ru/catalog/mono_rozy/buket-249.html</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Букет 249</t>
+          <t>Букет 296</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>7850</v>
+        <v>4730</v>
       </c>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1357.JPG</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1358.jpg</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/mono_rozy/buket-249.html</t>
+          <t>https://gift2gift.ru/catalog/mono_rozy/buket-296.html</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Букет 296</t>
+          <t>Дуо-букет из Lady Bombastic и танацетум, размер L</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>4730</v>
+        <v>4875</v>
       </c>
       <c r="C164" t="inlineStr"/>
       <c r="D164" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1358.jpg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1359.jpg</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/mono_rozy/buket-296.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-svyshe-5000/buket-358.html</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Дуо-букет из Lady Bombastic и танацетум, размер L</t>
+          <t>Букет 359</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>5075</v>
+        <v>4150</v>
       </c>
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1359.jpg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1360.jpg</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-svyshe-5000/buket-358.html</t>
+          <t>https://gift2gift.ru/catalog/monobukety/buket-359.html</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Букет 359</t>
+          <t>Букет 1367</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>4150</v>
+        <v>4610</v>
       </c>
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1360.jpg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1367.jpg</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/monobukety/buket-359.html</t>
+          <t>https://gift2gift.ru/catalog/mono_rozy/buket-494.html</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Букет 494</t>
+          <t>Композиция 1319</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>4610</v>
+        <v>2230</v>
       </c>
       <c r="C167" t="inlineStr"/>
       <c r="D167" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1367.jpg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1372.jpeg</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/mono_rozy/buket-494.html</t>
+          <t>https://gift2gift.ru/catalog/cvety_v_korobke/kompozitsiya-1319_1372.html</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Композиция 1319</t>
+          <t>Композиция 1373</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>2230</v>
+        <v>2745</v>
       </c>
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1372.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1373-s.jpeg</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/cvety_v_korobke/kompozitsiya-1319_1372.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/kompozitsiya_____________.html</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Композиция 1373</t>
+          <t>Букет 1374</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>2745</v>
+        <v>4920</v>
       </c>
       <c r="C169" t="inlineStr"/>
       <c r="D169" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1373-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1374.jpg</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/kompozitsiya_____________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-648.html</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Букет 1374</t>
+          <t>Букет 661</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>5250</v>
+        <v>4715</v>
       </c>
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1374.jpg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1375.jpg</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-648.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-661.html</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Букет 661</t>
+          <t>Букет 670</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>4715</v>
+        <v>4600</v>
       </c>
       <c r="C171" t="inlineStr"/>
       <c r="D171" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1375.jpg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1376.jpg</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-661.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-670.html</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Букет 670</t>
+          <t>Букет 671</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>4600</v>
+        <v>6025</v>
       </c>
       <c r="C172" t="inlineStr"/>
       <c r="D172" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1376.jpg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1377.jpg</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-670.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-671.html</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Букет 671</t>
+          <t>Букет 682</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>6025</v>
+        <v>6775</v>
       </c>
       <c r="C173" t="inlineStr"/>
       <c r="D173" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1377.jpg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1379.jpg</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-671.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-682.html</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Букет 682</t>
+          <t>Букет 706</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>6775</v>
+        <v>2650</v>
       </c>
       <c r="C174" t="inlineStr"/>
       <c r="D174" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1379.jpg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1381.jpg</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-682.html</t>
+          <t>https://gift2gift.ru/catalog/monobukety/buket-706.html</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Букет 706</t>
+          <t>Букет 713</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>2650</v>
+        <v>4300</v>
       </c>
       <c r="C175" t="inlineStr"/>
       <c r="D175" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1381.jpg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1382.jpg</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/monobukety/buket-706.html</t>
+          <t>https://gift2gift.ru/catalog/mono_rozy/buket-713.html</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Букет 713</t>
+          <t>Букет 725</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>4300</v>
+        <v>5530</v>
       </c>
       <c r="C176" t="inlineStr"/>
       <c r="D176" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1382.jpg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1385.jpg</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/mono_rozy/buket-713.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-725.html</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Букет 725</t>
+          <t>Букет 727</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>5630</v>
+        <v>3700</v>
       </c>
       <c r="C177" t="inlineStr"/>
       <c r="D177" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1385.jpg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1386.jpg</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-725.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-727.html</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Букет 727</t>
+          <t>Букет 735</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>3800</v>
+        <v>5500</v>
       </c>
       <c r="C178" t="inlineStr"/>
       <c r="D178" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1386.jpg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1390.jpeg</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-727.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-svyshe-5000/buket-735.html</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Букет 735</t>
+          <t>Букет 751</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>5500</v>
+        <v>6310</v>
       </c>
       <c r="C179" t="inlineStr"/>
       <c r="D179" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1390.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1392.jpeg</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-svyshe-5000/buket-735.html</t>
+          <t>https://gift2gift.ru/catalog/mono_rozy/buket-751.html</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Букет 751</t>
+          <t>Букет 754</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>6310</v>
+        <v>4270</v>
       </c>
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1392.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1394.jpeg</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/mono_rozy/buket-751.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/buket-754.html</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Букет 754</t>
+          <t>Букет 827</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>4270</v>
+        <v>3870</v>
       </c>
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1394.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1398.jpeg</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/buket-754.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-827.html</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Букет 827</t>
+          <t>Букет 830</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>4090</v>
+        <v>8100</v>
       </c>
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1398.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1399.jpeg</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-827.html</t>
+          <t>https://gift2gift.ru/catalog/monobukety/buket-830.html</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Букет 830</t>
+          <t>Букет 831</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>8100</v>
+        <v>3265</v>
       </c>
       <c r="C183" t="inlineStr"/>
       <c r="D183" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1399.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1400.jpeg</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/monobukety/buket-830.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/buket-831.html</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Букет 831</t>
+          <t>Букет 857</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>3265</v>
+        <v>5900</v>
       </c>
       <c r="C184" t="inlineStr"/>
       <c r="D184" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1400.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1401.jpeg</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/buket-831.html</t>
+          <t>https://gift2gift.ru/catalog/mono_rozy/buket-857.html</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Букет 857</t>
+          <t>Букет 866</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>5900</v>
+        <v>6050</v>
       </c>
       <c r="C185" t="inlineStr"/>
       <c r="D185" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1401.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1403.jpeg</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/mono_rozy/buket-857.html</t>
+          <t>https://gift2gift.ru/catalog/mono_rozy/buket-866.html</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Букет 866</t>
+          <t>Букет 870</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>6050</v>
+        <v>3490</v>
       </c>
       <c r="C186" t="inlineStr"/>
       <c r="D186" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1403.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1409.jpeg</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/mono_rozy/buket-866.html</t>
+          <t>https://gift2gift.ru/catalog/mono_rozy/buket-870.html</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Букет 870</t>
+          <t>Букет 875</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>3490</v>
+        <v>4370</v>
       </c>
       <c r="C187" t="inlineStr"/>
       <c r="D187" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1409.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1412.jpeg</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/mono_rozy/buket-870.html</t>
+          <t>https://gift2gift.ru/catalog/mono_rozy/buket-875.html</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Букет 875</t>
+          <t>Букет 876</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>4370</v>
+        <v>4000</v>
       </c>
       <c r="C188" t="inlineStr"/>
       <c r="D188" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1412.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1413.jpeg</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/mono_rozy/buket-875.html</t>
+          <t>https://gift2gift.ru/catalog/mono_rozy/buket-876.html</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Букет 876</t>
+          <t>Букет 877</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>4000</v>
+        <v>5563</v>
       </c>
       <c r="C189" t="inlineStr"/>
       <c r="D189" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1413.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1414.jpeg</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/mono_rozy/buket-876.html</t>
+          <t>https://gift2gift.ru/catalog/mono_rozy/buket-877_1414.html</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Букет 877</t>
+          <t>Букет 879</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>3780</v>
+        <v>4200</v>
       </c>
       <c r="C190" t="inlineStr"/>
       <c r="D190" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1414.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1415.jpeg</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/mono_rozy/buket-877_1414.html</t>
+          <t>https://gift2gift.ru/catalog/mono_rozy/buket-879_1415.html</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Букет 879</t>
+          <t>Букет 884</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>4200</v>
+        <v>3680</v>
       </c>
       <c r="C191" t="inlineStr"/>
       <c r="D191" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1415.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1416.jpeg</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/mono_rozy/buket-879_1415.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/buket-884_1416.html</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Букет 884</t>
+          <t>Дуо-букет диантусы и розы Miss Bombastic, размер S</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>3680</v>
+        <v>3600</v>
       </c>
       <c r="C192" t="inlineStr"/>
       <c r="D192" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1416.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1417.jpeg</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/buket-884_1416.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/buket-885_1417.html</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Дуо-букет диантусы и розы Miss Bombastic, размер S</t>
+          <t>Букет из диантусов, размер М</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>3600</v>
+        <v>4400</v>
       </c>
       <c r="C193" t="inlineStr"/>
       <c r="D193" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1417.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1418.jpeg</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/buket-885_1417.html</t>
+          <t>https://gift2gift.ru/catalog/monobukety/buket-886_1418.html</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Букет из диантусов, размер М</t>
+          <t>Букет 903</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>4400</v>
+        <v>4790</v>
       </c>
       <c r="C194" t="inlineStr"/>
       <c r="D194" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1418.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1420.jpeg</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/monobukety/buket-886_1418.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-903.html</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Букет 903</t>
+          <t>Букет 911</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>4790</v>
+        <v>2700</v>
       </c>
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1420.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1424.jpeg</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-903.html</t>
+          <t>https://gift2gift.ru/catalog/monobukety/buket-911_1424.html</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Букет 911</t>
+          <t>Дуо-букет из диантусов, размер М</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>3000</v>
+        <v>3650</v>
       </c>
       <c r="C196" t="inlineStr"/>
       <c r="D196" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1424.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1426.jpeg</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/monobukety/buket-911_1424.html</t>
+          <t>https://gift2gift.ru/catalog/monobukety/buket-914_1426.html</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Дуо-букет из диантусов, размер М</t>
+          <t>Букет 919</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>3650</v>
+        <v>3540</v>
       </c>
       <c r="C197" t="inlineStr"/>
       <c r="D197" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1426.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1427.jpeg</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/monobukety/buket-914_1426.html</t>
+          <t>https://gift2gift.ru/catalog/mono_rozy/buket-919_1427.html</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Букет 919</t>
+          <t>Букет 921</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>3540</v>
+        <v>5010</v>
       </c>
       <c r="C198" t="inlineStr"/>
       <c r="D198" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1427.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1428.jpeg</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/mono_rozy/buket-919_1427.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-921_1428.html</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Букет 921</t>
+          <t>Букет 926</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>5110</v>
+        <v>5300</v>
       </c>
       <c r="C199" t="inlineStr"/>
       <c r="D199" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1428.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1429.jpeg</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-921_1428.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-svyshe-5000/buket-926.html</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Букет 926</t>
+          <t>Букет 935</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>5400</v>
+        <v>4240</v>
       </c>
       <c r="C200" t="inlineStr"/>
       <c r="D200" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1429.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1430.jpeg</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-svyshe-5000/buket-926.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-935_1430.html</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Букет 935</t>
+          <t>Букет 954</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>4240</v>
+        <v>4550</v>
       </c>
       <c r="C201" t="inlineStr"/>
       <c r="D201" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1430.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1435.jpeg</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-935_1430.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-954.html</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Букет 954</t>
+          <t>Букет роз Country Blues, размер S</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>4550</v>
+        <v>3490</v>
       </c>
       <c r="C202" t="inlineStr"/>
       <c r="D202" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1435.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1437-s.jpeg</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-954.html</t>
+          <t>https://gift2gift.ru/catalog/monobukety/buket-964.html</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Букет роз Country Blues, размер S</t>
+          <t>Букет 981</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>3490</v>
+        <v>3200</v>
       </c>
       <c r="C203" t="inlineStr"/>
       <c r="D203" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1437-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1438.jpeg</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/monobukety/buket-964.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/buket-981_1438.html</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Букет 981</t>
+          <t>Букет 990</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>3420</v>
+        <v>4230</v>
       </c>
       <c r="C204" t="inlineStr"/>
       <c r="D204" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1438.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1439.jpeg</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/buket-981_1438.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-990_1439.html</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Букет 990</t>
+          <t>Букет 992</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>4230</v>
+        <v>4650</v>
       </c>
       <c r="C205" t="inlineStr"/>
       <c r="D205" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1439.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1441.jpeg</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-990_1439.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-992_1441.html</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Букет 992</t>
+          <t>Букет 1447</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>4650</v>
+        <v>3680</v>
       </c>
       <c r="C206" t="inlineStr"/>
       <c r="D206" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1441.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1449.jpeg</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-992_1441.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket-1447_1449.html</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Букет 1447</t>
+          <t>Букет 1450</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>3900</v>
+        <v>2550</v>
       </c>
       <c r="C207" t="inlineStr"/>
       <c r="D207" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1449.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1450-s.jpeg</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket-1447_1449.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket__________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Букет 1450</t>
+          <t>Композиция 1451</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>2550</v>
+        <v>2170</v>
       </c>
       <c r="C208" t="inlineStr"/>
       <c r="D208" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1450-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1451-s.jpeg</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket__________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/kompozitsiya______________.html</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Композиция 1451</t>
+          <t>Букет 1463</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>2170</v>
+        <v>2900</v>
       </c>
       <c r="C209" t="inlineStr"/>
       <c r="D209" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1451-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1463-s.jpeg</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/kompozitsiya______________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/____________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Букет 1463</t>
+          <t>Букет 1465</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>2900</v>
+        <v>3600</v>
       </c>
       <c r="C210" t="inlineStr"/>
       <c r="D210" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1463-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1465-s.jpeg</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/____________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/______________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Букет 1465</t>
+          <t>Букет 1468</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>3600</v>
+        <v>2575</v>
       </c>
       <c r="C211" t="inlineStr"/>
       <c r="D211" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1465-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1468-s.jpeg</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/______________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/_________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Букет 1468</t>
+          <t>Букет 1469</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>2695</v>
+        <v>2350</v>
       </c>
       <c r="C212" t="inlineStr"/>
       <c r="D212" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1468-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1469-s.jpeg</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/_________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/__________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Букет 1469</t>
+          <t>Букет 1471</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>2350</v>
+        <v>6450</v>
       </c>
       <c r="C213" t="inlineStr"/>
       <c r="D213" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1469-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1471-s.jpeg</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/__________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/____________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Букет 1471</t>
+          <t>Букет 1473</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>6450</v>
+        <v>4240</v>
       </c>
       <c r="C214" t="inlineStr"/>
       <c r="D214" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1471-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1473-s.jpeg</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/____________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket___________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Букет 1473</t>
+          <t>Букет 1474</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>4240</v>
+        <v>4650</v>
       </c>
       <c r="C215" t="inlineStr"/>
       <c r="D215" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1473-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1474-s.jpeg</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket___________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket____________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Букет 1474</t>
+          <t>Букет 989</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>4650</v>
+        <v>4700</v>
       </c>
       <c r="C216" t="inlineStr"/>
       <c r="D216" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1474-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1475.jpeg</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket____________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket-989_1475.html</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Букет 989</t>
+          <t>Букет 1105</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>4700</v>
+        <v>2650</v>
       </c>
       <c r="C217" t="inlineStr"/>
       <c r="D217" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1475.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1477.jpeg</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket-989_1475.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket-1105.html</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Букет 1105</t>
+          <t>Букет 1494</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>2650</v>
+        <v>3450</v>
       </c>
       <c r="C218" t="inlineStr"/>
       <c r="D218" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1477.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1494-s.jpeg</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket-1105.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Букет 1494</t>
+          <t>Букет 1496</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>3450</v>
+        <v>4185</v>
       </c>
       <c r="C219" t="inlineStr"/>
       <c r="D219" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1494-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1496-s.jpeg</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket_________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Букет 1496</t>
+          <t>Букет 1497</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>4285</v>
+        <v>3490</v>
       </c>
       <c r="C220" t="inlineStr"/>
       <c r="D220" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1496-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1497-s.jpeg</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket_________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket__________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Букет 1497</t>
+          <t>Луковичная композиция 1499</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>3490</v>
+        <v>3270</v>
       </c>
       <c r="C221" t="inlineStr"/>
       <c r="D221" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1497-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1499-s.jpeg</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket__________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/lukovichnaya-kompozitsiya.html</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Луковичная композиция 1499</t>
+          <t>Букет из гортензий, размер S</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>3270</v>
+        <v>2100</v>
       </c>
       <c r="C222" t="inlineStr"/>
       <c r="D222" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1499-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1504-s.jpeg</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/lukovichnaya-kompozitsiya.html</t>
+          <t>https://gift2gift.ru/catalog/monobukety/buket____________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Букет из гортензий, размер S</t>
+          <t>Букет 1517</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>2300</v>
+        <v>4750</v>
       </c>
       <c r="C223" t="inlineStr"/>
       <c r="D223" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1504-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1517-s.jpeg</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/monobukety/buket____________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/buket________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Букет 1517</t>
+          <t>Букет 1519</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>4750</v>
+        <v>3810</v>
       </c>
       <c r="C224" t="inlineStr"/>
       <c r="D224" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1517-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1519-s.jpeg</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/buket________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/__________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Букет 1519</t>
+          <t>Букет 1520</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>3810</v>
+        <v>4730</v>
       </c>
       <c r="C225" t="inlineStr"/>
       <c r="D225" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1519-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1520-s.jpeg</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/__________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/buket_________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Букет 1520</t>
+          <t>Букет 1521</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>4730</v>
+        <v>4300</v>
       </c>
       <c r="C226" t="inlineStr"/>
       <c r="D226" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1520-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1521-s.jpeg</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/buket_________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket__________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Букет 1521</t>
+          <t>Букет 1522</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>4400</v>
+        <v>3790</v>
       </c>
       <c r="C227" t="inlineStr"/>
       <c r="D227" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1521-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1522-s.jpeg</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket__________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket___________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Букет 1522</t>
+          <t>Букет 1523</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>3790</v>
+        <v>4250</v>
       </c>
       <c r="C228" t="inlineStr"/>
       <c r="D228" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1522-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1523-s.jpeg</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket___________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/bukt.html</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Букет 1523</t>
+          <t>Композиция 1529</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>4250</v>
+        <v>3235</v>
       </c>
       <c r="C229" t="inlineStr"/>
       <c r="D229" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1523-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1529-s.jpeg</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/bukt.html</t>
+          <t>https://gift2gift.ru/catalog/kompozitsiya________________.html</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Композиция 1529</t>
+          <t>Композиция 1530</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>3235</v>
+        <v>2990</v>
       </c>
       <c r="C230" t="inlineStr"/>
       <c r="D230" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1529-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1530-s.jpeg</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/kompozitsiya________________.html</t>
+          <t>https://gift2gift.ru/catalog/kompozitsiya_________________.html</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Композиция 1530</t>
+          <t>Букет 1533</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>2990</v>
+        <v>3690</v>
       </c>
       <c r="C231" t="inlineStr"/>
       <c r="D231" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1530-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1533-s.jpeg</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/kompozitsiya_________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket______________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Букет 1533</t>
+          <t>Букет 1542</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>3790</v>
+        <v>2575</v>
       </c>
       <c r="C232" t="inlineStr"/>
       <c r="D232" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1533-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1542-s.jpeg</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket______________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket_________.html</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Букет 1542</t>
+          <t>Букет 1543</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>2695</v>
+        <v>3500</v>
       </c>
       <c r="C233" t="inlineStr"/>
       <c r="D233" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1542-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1543-s.jpeg</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket_________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket_________________.html</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Букет 1543</t>
+          <t>Букет 1544</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>3500</v>
+        <v>2550</v>
       </c>
       <c r="C234" t="inlineStr"/>
       <c r="D234" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1543-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1544-s.jpeg</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket_________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket_________________________.html</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Букет 1544</t>
+          <t>Букет 1547</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>2550</v>
+        <v>2600</v>
       </c>
       <c r="C235" t="inlineStr"/>
       <c r="D235" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1544-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1547-s.jpeg</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket_________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/buket____________________________.html</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Букет 1547</t>
+          <t>Букет 1548</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>2760</v>
+        <v>4810</v>
       </c>
       <c r="C236" t="inlineStr"/>
       <c r="D236" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1547-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1548-s.jpeg</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/buket____________________________.html</t>
+          <t>https://gift2gift.ru/catalog/buket____________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Букет 1548</t>
+          <t>Букет 1573</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>4910</v>
+        <v>3110</v>
       </c>
       <c r="C237" t="inlineStr"/>
       <c r="D237" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1548-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1573-s.jpeg</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/buket____________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/_________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Букет 1573</t>
+          <t>Букет из кустовых роз Miss Bombastic, размер M</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>3110</v>
+        <v>4250</v>
       </c>
       <c r="C238" t="inlineStr"/>
       <c r="D238" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1573-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1594-s.jpeg</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/_________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/monobukety/buket______________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Букет из кустовых роз Miss Bombastic, размер M</t>
+          <t>Букет из кустовых роз Miss Bombastic, размер S</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>4250</v>
+        <v>3150</v>
       </c>
       <c r="C239" t="inlineStr"/>
       <c r="D239" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1594-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1596-s.jpeg</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/monobukety/buket______________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/monobukety/________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Букет из кустовых роз Miss Bombastic, размер S</t>
+          <t>Букет из роз Pink Mondial, размер S</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>3150</v>
+        <v>2400</v>
       </c>
       <c r="C240" t="inlineStr"/>
       <c r="D240" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1596-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1597-s.jpeg</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/monobukety/________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/monobukety/_________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Букет из роз Pink Mondial, размер S</t>
+          <t>Букет 1599</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>2400</v>
+        <v>3870</v>
       </c>
       <c r="C241" t="inlineStr"/>
       <c r="D241" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1597-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1599-s.jpeg</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/monobukety/_________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Букет 1599</t>
+          <t>Букет 1600</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>3870</v>
+        <v>3150</v>
       </c>
       <c r="C242" t="inlineStr"/>
       <c r="D242" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1599-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1600-s.jpeg</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/monobukety/buket_________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Букет 1600</t>
+          <t>Букет из диантусов, размер S</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>3150</v>
+        <v>2650</v>
       </c>
       <c r="C243" t="inlineStr"/>
       <c r="D243" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1600-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1608-s.jpeg</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/monobukety/buket_________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/monobukety/buket-iz-diantusov-razmer-s.html</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Букет из диантусов, размер S</t>
+          <t>Букет 1610</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>2650</v>
+        <v>2630</v>
       </c>
       <c r="C244" t="inlineStr"/>
       <c r="D244" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1608-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1610-s.jpeg</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/monobukety/buket-iz-diantusov-razmer-s.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket__________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Букет 1610</t>
+          <t>Моно-букет из диантусов, размер S</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>2630</v>
+        <v>2650</v>
       </c>
       <c r="C245" t="inlineStr"/>
       <c r="D245" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1610-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1625-s.jpeg</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket__________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/monobukety/________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Моно-букет из диантусов, размер S</t>
+          <t>Дуо-букет кустовых роз miss bombastic и танацетума, размер S</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>2650</v>
+        <v>3400</v>
       </c>
       <c r="C246" t="inlineStr"/>
       <c r="D246" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1625-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1630-s.jpeg</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/monobukety/________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/____________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Дуо-букет кустовых роз miss bombastic и танацетума, размер S</t>
+          <t>Дуо-букет из роз Miss Bombastic и танацетума, размер M</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>3480</v>
+        <v>4625</v>
       </c>
       <c r="C247" t="inlineStr"/>
       <c r="D247" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1630-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1631-s.jpeg</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/____________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/duo-buket-iz-kustovykh-roz-miss-bombastic-i-tanatsetuma-razmer-m.html</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Дуо-букет из роз Miss Bombastic и танацетума, размер M</t>
+          <t>Дуо-букет из кустовых роз Madam Bombastic и гортензии, размер S</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>4745</v>
+        <v>3650</v>
       </c>
       <c r="C248" t="inlineStr"/>
       <c r="D248" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1631-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1634-s.jpeg</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/duo-buket-iz-kustovykh-roz-miss-bombastic-i-tanatsetuma-razmer-m.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/duo-buket-iz-kustovykh-roz-madam-bombastic-i-gortenzii-razmer-s.html</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Дуо-букет из кустовых роз Madam Bombastic и гортензии, размер S</t>
+          <t>Дуо-букет из кустовых роз Madam Bombastic и гортензии, размер M</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>3650</v>
+        <v>4750</v>
       </c>
       <c r="C249" t="inlineStr"/>
       <c r="D249" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1634-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1635-s.jpeg</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/duo-buket-iz-kustovykh-roz-madam-bombastic-i-gortenzii-razmer-s.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/duo-buket-iz-kustovykh-roz-madam-bombastic-i-gortenzii-razmer-m.html</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Дуо-букет из кустовых роз Madam Bombastic и гортензии, размер M</t>
+          <t>Дуо-букет из кустовых роз Miss Bombastic и гортензии, размер S</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>4750</v>
+        <v>3650</v>
       </c>
       <c r="C250" t="inlineStr"/>
       <c r="D250" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1635-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1636-s.jpeg</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/duo-buket-iz-kustovykh-roz-madam-bombastic-i-gortenzii-razmer-m.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/______________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Дуо-букет из кустовых роз Miss Bombastic и гортензии, размер S</t>
+          <t>Дуо-букет из кустовых роз Miss Bombastic и гортензии, размер M</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>3650</v>
+        <v>4750</v>
       </c>
       <c r="C251" t="inlineStr"/>
       <c r="D251" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1636-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1637-s.jpeg</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/______________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/_______________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Дуо-букет из кустовых роз Miss Bombastic и гортензии, размер M</t>
+          <t>Моно-букет из альстромерии, размер S</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>4750</v>
+        <v>2650</v>
       </c>
       <c r="C252" t="inlineStr"/>
       <c r="D252" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1637-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1638-s.jpeg</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/_______________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/mono-buket-iz-alstromerii-razmer-s.html</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Моно-букет из альстромерии, размер S</t>
+          <t>Моно-букет из альстромерии, размер М</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>2650</v>
+        <v>3650</v>
       </c>
       <c r="C253" t="inlineStr"/>
       <c r="D253" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1638-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1639-s.jpeg</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/mono-buket-iz-alstromerii-razmer-s.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/mono-buket-iz-alstromerii-razmer-m.html</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Моно-букет из альстромерии, размер М</t>
+          <t>Букет из роз Candle light, размер S</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>3650</v>
+        <v>2750</v>
       </c>
       <c r="C254" t="inlineStr"/>
       <c r="D254" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1639-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1641-s.jpeg</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/mono-buket-iz-alstromerii-razmer-m.html</t>
+          <t>https://gift2gift.ru/catalog/monobukety/________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Букет из роз Candle light, размер S</t>
+          <t>Букет из диантусов, размер S</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>2750</v>
+        <v>2850</v>
       </c>
       <c r="C255" t="inlineStr"/>
       <c r="D255" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1641-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1642-s.jpeg</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/monobukety/________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/monobukety/buket-iz-diantusov-razmer-s_.html</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Букет из диантусов, размер S</t>
+          <t>Моно-букет из роз Candle Light, размер S</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>2850</v>
+        <v>2750</v>
       </c>
       <c r="C256" t="inlineStr"/>
       <c r="D256" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1642-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1643-s.jpeg</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/monobukety/buket-iz-diantusov-razmer-s_.html</t>
+          <t>https://gift2gift.ru/catalog/mono_rozy/_________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Моно-букет из роз Candle Light, размер S</t>
+          <t>Моно букет из роз Mondial, размера S</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>2750</v>
+        <v>2200</v>
       </c>
       <c r="C257" t="inlineStr"/>
       <c r="D257" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1643-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1650-s.jpeg</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/mono_rozy/_________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/monobukety/__________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Моно букет из роз Mondial, размера S</t>
+          <t>Букет 1656</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>2200</v>
+        <v>2450</v>
       </c>
       <c r="C258" t="inlineStr"/>
       <c r="D258" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1650-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1656-s.jpeg</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/monobukety/__________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket_____________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Букет 1656</t>
+          <t>Дуо-букет из Pink Mondial и кустовых роз, размер S</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>2450</v>
+        <v>3000</v>
       </c>
       <c r="C259" t="inlineStr"/>
       <c r="D259" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1656-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1664-s.jpeg</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket_____________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/duo-buket-iz-pink-mondial-i-kustovykh-roz-razmer-s.html</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Дуо-букет из Pink Mondial и кустовых роз, размер S</t>
+          <t>Дуо-букет из Pink Mondial и кустовых роз, размер М</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>3000</v>
+        <v>4150</v>
       </c>
       <c r="C260" t="inlineStr"/>
       <c r="D260" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1664-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1665-s.jpeg</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/duo-buket-iz-pink-mondial-i-kustovykh-roz-razmer-s.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/duo-buket-iz-pink-mondial-i-kustovykh-roz-razmer-m.html</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Дуо-букет из Pink Mondial и кустовых роз, размер М</t>
+          <t>Дуо-букет из диантусов и альстромерии, размер S</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>4150</v>
+        <v>2800</v>
       </c>
       <c r="C261" t="inlineStr"/>
       <c r="D261" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1665-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1666-s.jpeg</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/duo-buket-iz-pink-mondial-i-kustovykh-roz-razmer-m.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/____________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Дуо-букет из диантусов и альстромерии, размер S</t>
+          <t>Дуо-букет из диантусов и альстромерии, размер M</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>2800</v>
+        <v>3950</v>
       </c>
       <c r="C262" t="inlineStr"/>
       <c r="D262" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1666-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1667-s.jpeg</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/____________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/_____________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Дуо-букет из диантусов и альстромерии, размер M</t>
+          <t>Дуо-букет из Pink Mondial и кустовых роз, размер S</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>3950</v>
+        <v>3000</v>
       </c>
       <c r="C263" t="inlineStr"/>
       <c r="D263" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1667-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1668-s.jpeg</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/_____________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/______________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Дуо-букет из Pink Mondial и кустовых роз, размер S</t>
+          <t>Дуо-букет из Pink Mondial и кустовых роз, размер M</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>3000</v>
+        <v>4150</v>
       </c>
       <c r="C264" t="inlineStr"/>
       <c r="D264" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1668-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1669-s.jpeg</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/______________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/_______________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Дуо-букет из Pink Mondial и кустовых роз, размер M</t>
+          <t>Дуо-букет из кустовых роз и диантусов, размер S</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>4150</v>
+        <v>2850</v>
       </c>
       <c r="C265" t="inlineStr"/>
       <c r="D265" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1669-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1670-s.jpeg</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/_______________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Дуо-букет из кустовых роз и диантусов, размер S</t>
+          <t>Дуо-букет из кустовых роз и диантусов, размер M</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>2850</v>
+        <v>4550</v>
       </c>
       <c r="C266" t="inlineStr"/>
       <c r="D266" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1670-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1671-s.jpeg</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/_________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Дуо-букет из кустовых роз и диантусов, размер M</t>
+          <t>Дуо-букет из кустовых роз и альстромерии, размер S</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>4550</v>
+        <v>3050</v>
       </c>
       <c r="C267" t="inlineStr"/>
       <c r="D267" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1671-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1672-s.jpeg</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/_________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/__________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Дуо-букет из кустовых роз и альстромерии, размер S</t>
+          <t>Дуо-букет из кустовых роз и альстромерии, размер M</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>3050</v>
+        <v>4650</v>
       </c>
       <c r="C268" t="inlineStr"/>
       <c r="D268" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1672-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1673-s.jpeg</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/__________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/___________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Дуо-букет из кустовых роз и альстромерии, размер M</t>
+          <t>Дуо-букет из кустовых роз и альстромерии, размер S</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>4650</v>
+        <v>3050</v>
       </c>
       <c r="C269" t="inlineStr"/>
       <c r="D269" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1673-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1674-s.jpeg</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/___________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/____________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Дуо-букет из кустовых роз и альстромерии, размер S</t>
+          <t>Дуо-букет из кустовых роз и альстромерии, размер M</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>3050</v>
+        <v>4650</v>
       </c>
       <c r="C270" t="inlineStr"/>
       <c r="D270" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1674-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1675-s.jpeg</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/____________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/duo-buket-iz-kustovykh-roz-i-alstromerii-razmer-m.html</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Дуо-букет из кустовых роз и альстромерии, размер M</t>
+          <t>Дуо-букет из диантусов и танацетума, размер S</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>4650</v>
+        <v>2125</v>
       </c>
       <c r="C271" t="inlineStr"/>
       <c r="D271" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1675-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1676-s.jpeg</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/duo-buket-iz-kustovykh-roz-i-alstromerii-razmer-m.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/_____________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Дуо-букет из диантусов и танацетума, размер S</t>
+          <t>Дуо-букет из диантусов и танацетума, размер M</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>2245</v>
+        <v>2850</v>
       </c>
       <c r="C272" t="inlineStr"/>
       <c r="D272" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1676-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1677-s.jpeg</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/_____________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/duo-buket-iz-diantusov-i-tanatsetuma-razmer-m.html</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Дуо-букет из диантусов и танацетума, размер M</t>
+          <t>Дуо-букет из кустовых роз и диантусов, размера M</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>3010</v>
+        <v>4550</v>
       </c>
       <c r="C273" t="inlineStr"/>
       <c r="D273" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1677-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1704-s.jpeg</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/duo-buket-iz-diantusov-i-tanatsetuma-razmer-m.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/___________________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Дуо-букет из кустовых роз и диантусов, размера M</t>
+          <t>Дуо-букет из хризантем и диантусов, размер S</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>4550</v>
+        <v>2400</v>
       </c>
       <c r="C274" t="inlineStr"/>
       <c r="D274" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1704-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1705-s.jpeg</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/___________________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/____________________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Дуо-букет из хризантем и диантусов, размер S</t>
+          <t>Дуо-букет из хризантем и диантусов, размер M</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>2730</v>
+        <v>3250</v>
       </c>
       <c r="C275" t="inlineStr"/>
       <c r="D275" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1705-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1706-s.jpeg</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/____________________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/duo-buket-iz-khrizantem-i-diantusov-razmer-m.html</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Дуо-букет из хризантем и диантусов, размер M</t>
+          <t>Дуо-букет из роз Mondial и кустовых роз, размера S</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>3800</v>
+        <v>3680</v>
       </c>
       <c r="C276" t="inlineStr"/>
       <c r="D276" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1706-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1707-s.jpeg</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/duo-buket-iz-khrizantem-i-diantusov-razmer-m.html</t>
+          <t>https://gift2gift.ru/catalog/mono_rozy/_____________________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Дуо-букет из роз Mondial и кустовых роз, размера S</t>
+          <t>Дуо-букет из роз Mondial и кустовых роз, размера M</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>3680</v>
+        <v>4450</v>
       </c>
       <c r="C277" t="inlineStr"/>
       <c r="D277" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1707-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1708-s.jpeg</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/mono_rozy/_____________________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/mono_rozy/duo-buket-iz-roz-mondial-i-kustovykh-roz-razmera-m.html</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Дуо-букет из роз Mondial и кустовых роз, размера M</t>
+          <t>Дуо-букет из хризантем и альстромерии, размер S</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>4450</v>
+        <v>2400</v>
       </c>
       <c r="C278" t="inlineStr"/>
       <c r="D278" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1708-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1709-s.jpeg</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/mono_rozy/duo-buket-iz-roz-mondial-i-kustovykh-roz-razmera-m.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/duo-buket-iz-khrizantem-i-alstromerii-razmer-s.html</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Дуо-букет из хризантем и альстромерии, размер S</t>
+          <t>Дуо-букет из хризантем и альстромерии, размер M</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>2730</v>
+        <v>3450</v>
       </c>
       <c r="C279" t="inlineStr"/>
       <c r="D279" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1709-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1710-s.jpeg</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/duo-buket-iz-khrizantem-i-alstromerii-razmer-s.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/duo-buket-iz-khrizantem-i-alstromerii-razmer-m.html</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Дуо-букет из хризантем и альстромерии, размер M</t>
+          <t>Флористический кензан</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>4000</v>
+        <v>1200</v>
       </c>
       <c r="C280" t="inlineStr"/>
       <c r="D280" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1710-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1711-s.jpeg</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/duo-buket-iz-khrizantem-i-alstromerii-razmer-m.html</t>
+          <t>https://gift2gift.ru/catalog/kenzan/floristicheskii-kenzan.html</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Флористический кензан</t>
+          <t>Ваза-чаша для кензана</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="C281" t="inlineStr"/>
       <c r="D281" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1711-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1712-s.jpeg</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/kenzan/floristicheskii-kenzan.html</t>
+          <t>https://gift2gift.ru/catalog/kenzan/vaza-chasha-dlya-kenzana.html</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Ваза-чаша для кензана</t>
+          <t>Дуо-букет из роз Candlelight и кустовых роз, размер М</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>300</v>
+        <v>4400</v>
       </c>
       <c r="C282" t="inlineStr"/>
       <c r="D282" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1712-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1713-s.jpeg</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/kenzan/vaza-chasha-dlya-kenzana.html</t>
+          <t>https://gift2gift.ru/catalog/mono_rozy/duo-buket-iz-roz-candlelight-i-kustovykh-roz-razmer-s.html</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Дуо-букет из роз Candlelight и кустовых роз, размер М</t>
+          <t>Дуо-букет из хризантем и кустовых диантусов, размер M</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>4400</v>
+        <v>3200</v>
       </c>
       <c r="C283" t="inlineStr"/>
       <c r="D283" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1713-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1714-s.jpeg</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/mono_rozy/duo-buket-iz-roz-candlelight-i-kustovykh-roz-razmer-s.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/______________________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Дуо-букет из хризантем и кустовых диантусов, размер M</t>
+          <t>Дуо-букет из хризантем и кустовых диантусов, размер S</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>3750</v>
+        <v>2050</v>
       </c>
       <c r="C284" t="inlineStr"/>
       <c r="D284" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1714-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1715-s.jpeg</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/______________________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/duo-buket-iz-khrizantem-i-kustovykh-diantusov-razmer-s.html</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Дуо-букет из хризантем и кустовых диантусов, размер S</t>
+          <t>Дуо-букет из роз Candlelight и кустовых роз, размера S</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>2380</v>
+        <v>3110</v>
       </c>
       <c r="C285" t="inlineStr"/>
       <c r="D285" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1715-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1716-s.jpeg</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/duo-buket-iz-khrizantem-i-kustovykh-diantusov-razmer-s.html</t>
+          <t>https://gift2gift.ru/catalog/mono_rozy/duo-buket-iz-roz-mondial-i-kustovykh-roz-razmera-s.html</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Дуо-букет из роз Candlelight и кустовых роз, размера S</t>
+          <t>Дуо-букет из роз Candlelight и кустовых роз, размера L</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>3110</v>
+        <v>5740</v>
       </c>
       <c r="C286" t="inlineStr"/>
       <c r="D286" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1716-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1717-s.jpeg</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/mono_rozy/duo-buket-iz-roz-mondial-i-kustovykh-roz-razmera-s.html</t>
+          <t>https://gift2gift.ru/catalog/mono_rozy/duo-buket-iz-roz-candlelight-i-kustovykh-roz-razmera-l.html</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Дуо-букет из роз Candlelight и кустовых роз, размера L</t>
+          <t>Дуо-букет из роз Mondial и альстромерии, размера S</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>5740</v>
+        <v>2480</v>
       </c>
       <c r="C287" t="inlineStr"/>
       <c r="D287" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1717-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1720-s.jpeg</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/mono_rozy/duo-buket-iz-roz-candlelight-i-kustovykh-roz-razmera-l.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/_________________________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Дуо-букет из роз Mondial и альстромерии, размера S</t>
+          <t>Дуо-букет из роз Mondial и альстромерии, размера M</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>2480</v>
+        <v>3700</v>
       </c>
       <c r="C288" t="inlineStr"/>
       <c r="D288" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1720-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1721-s.jpeg</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/_________________________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/__________________________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Дуо-букет из роз Mondial и альстромерии, размера M</t>
+          <t>Дуо-букет из кустовых роз и хризантемы, размера S</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>3700</v>
+        <v>3300</v>
       </c>
       <c r="C289" t="inlineStr"/>
       <c r="D289" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1721-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1722-s.jpeg</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/__________________________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/___________________________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Дуо-букет из кустовых роз и хризантемы, размера S</t>
+          <t>Дуо-букет из кустовых роз и хризантемы, размера M</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>3630</v>
+        <v>4400</v>
       </c>
       <c r="C290" t="inlineStr"/>
       <c r="D290" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1722-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1723-s.jpeg</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/___________________________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/duo-buket-iz-kustovykh-roz-i-khrizantemy-razmera-m.html</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Дуо-букет из кустовых роз и хризантемы, размера M</t>
+          <t>Букет из розы Red Naomi,размер S</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>4950</v>
+        <v>2650</v>
       </c>
       <c r="C291" t="inlineStr"/>
       <c r="D291" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1723-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1737-s.jpeg</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/duo-buket-iz-kustovykh-roz-i-khrizantemy-razmera-m.html</t>
+          <t>https://gift2gift.ru/catalog/mono_rozy/______________________________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Букет из розы Red Naomi,размер S</t>
+          <t>Букет из розы Red Naomi,размер M</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>2650</v>
+        <v>4550</v>
       </c>
       <c r="C292" t="inlineStr"/>
       <c r="D292" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1737-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1738-s.jpeg</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/mono_rozy/______________________________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/mono_rozy/buket-iz-rozy-red-naomi-razmer-m.html</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Букет из розы Red Naomi,размер M</t>
+          <t>Дуо-букет из диантусов и кустовых диантусов, размер S</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>4550</v>
+        <v>2650</v>
       </c>
       <c r="C293" t="inlineStr"/>
       <c r="D293" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1738-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1739-s.jpeg</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/mono_rozy/buket-iz-rozy-red-naomi-razmer-m.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/_______________________________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Дуо-букет из диантусов и кустовых диантусов, размер S</t>
+          <t>Дуо-букет из диантусов и кустовых диантусов, размер M</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>2650</v>
+        <v>3700</v>
       </c>
       <c r="C294" t="inlineStr"/>
       <c r="D294" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1739-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1740-s.jpeg</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/_______________________________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/duo-buket-iz-diantusov-i-kustovykh-diantusov-razmer-m.html</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Дуо-букет из диантусов и кустовых диантусов, размер M</t>
+          <t>Дуо-букет из роз Mondial и диантусов, размера S</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>3700</v>
+        <v>3450</v>
       </c>
       <c r="C295" t="inlineStr"/>
       <c r="D295" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1740-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1741-s.jpeg</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/duo-buket-iz-diantusov-i-kustovykh-diantusov-razmer-m.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/________________________________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Дуо-букет из роз Mondial и диантусов, размера S</t>
+          <t>Дуо-букет из роз Mondial и диантусов, размера M</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>3450</v>
+        <v>4620</v>
       </c>
       <c r="C296" t="inlineStr"/>
       <c r="D296" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1741-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1742-s.jpeg</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/________________________________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/_________________________________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Дуо-букет из роз Mondial и диантусов, размера M</t>
+          <t>Дуо-букет из кустовых роз Miss Bombastic и хризантемы, размер S</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>4620</v>
+        <v>3300</v>
       </c>
       <c r="C297" t="inlineStr"/>
       <c r="D297" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1742-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1743-s.jpeg</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/_________________________________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/__________________________________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Дуо-букет из кустовых роз Miss Bombastic и хризантемы, размер S</t>
+          <t>Дуо-букет из кустовых роз Miss Bombastic и хризантемы, размер M</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>3630</v>
+        <v>4350</v>
       </c>
       <c r="C298" t="inlineStr"/>
       <c r="D298" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1743-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1744-s.jpeg</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/__________________________________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/duo-buket-iz-kustovykh-roz-miss-bombastic-i-khrizantemy-razmer-m.html</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Дуо-букет из кустовых роз Miss Bombastic и хризантемы, размер M</t>
+          <t>Моно-букет из роз Mandarin, размер S</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>4900</v>
+        <v>2990</v>
       </c>
       <c r="C299" t="inlineStr"/>
       <c r="D299" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1744-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1756-s.jpeg</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/duo-buket-iz-kustovykh-roz-miss-bombastic-i-khrizantemy-razmer-m.html</t>
+          <t>https://gift2gift.ru/catalog/mono_rozy/mono-buket-iz-roz-mandarin-razmer-s.html</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Моно-букет из роз Mandarin, размер S</t>
+          <t>Дуо-букет из роз Mandarin и диантусов, размер S</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>2990</v>
+        <v>3510</v>
       </c>
       <c r="C300" t="inlineStr"/>
       <c r="D300" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1756-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1757-s.jpeg</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/mono_rozy/mono-buket-iz-roz-mandarin-razmer-s.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/duo-buket-iz-roz-mandarin-i-diantusov-razmer-s.html</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Дуо-букет из роз Mandarin и диантусов, размер S</t>
+          <t>Дуо-букет из роз Mandarin и диантусов, размер M</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>3510</v>
+        <v>4550</v>
       </c>
       <c r="C301" t="inlineStr"/>
       <c r="D301" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1757-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1758-s.jpeg</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/duo-buket-iz-roz-mandarin-i-diantusov-razmer-s.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/duo-buket-iz-roz-mandarin-i-diantusov-razmer-m.html</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Дуо-букет из роз Mandarin и диантусов, размер M</t>
+          <t>Дуо-букет из роз Mandarin и кустовых роз, размер S</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>4550</v>
+        <v>3660</v>
       </c>
       <c r="C302" t="inlineStr"/>
       <c r="D302" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1758-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1759-s.jpeg</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/duo-buket-iz-roz-mandarin-i-diantusov-razmer-m.html</t>
+          <t>https://gift2gift.ru/catalog/mono_rozy/duo-buket-iz-roz-mandarin-i-kustovykh-roz-razmer-s.html</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Дуо-букет из роз Mandarin и кустовых роз, размер S</t>
+          <t>Букет роз Country Blues, размер M</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>3660</v>
+        <v>5520</v>
       </c>
       <c r="C303" t="inlineStr"/>
       <c r="D303" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1759-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1760-s.jpeg</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/mono_rozy/duo-buket-iz-roz-mandarin-i-kustovykh-roz-razmer-s.html</t>
+          <t>https://gift2gift.ru/catalog/mono_rozy/buket-roz-country-blues-razmer-m.html</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Букет роз Country Blues, размер M</t>
+          <t>Дуо-букет из альстромерии и диантусов, размер S</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>5520</v>
+        <v>2800</v>
       </c>
       <c r="C304" t="inlineStr"/>
       <c r="D304" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1760-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1761-s.jpeg</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/mono_rozy/buket-roz-country-blues-razmer-m.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/duo-buket-iz-alstromerii-i-diantusov-razdel-s.html</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Дуо-букет из альстромерии и диантусов, размер S</t>
+          <t>Дуо-букет из альстромерии и диантусов, размер M</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>2800</v>
+        <v>3950</v>
       </c>
       <c r="C305" t="inlineStr"/>
       <c r="D305" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1761-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1762-s.jpeg</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/duo-buket-iz-alstromerii-i-diantusov-razdel-s.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/duo-buket-iz-alstromerii-i-diantusov-razmer-m.html</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Дуо-букет из альстромерии и диантусов, размер M</t>
+          <t>Дуо-букет из гортензии и диантусов, размер S</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>3950</v>
+        <v>2850</v>
       </c>
       <c r="C306" t="inlineStr"/>
       <c r="D306" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1762-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1763-s.jpeg</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/duo-buket-iz-alstromerii-i-diantusov-razmer-m.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/duo-buket-iz-gortenzii-i-diantusov-razmer-s.html</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Дуо-букет из гортензии и диантусов, размер S</t>
+          <t>Дуо-букет из гортензии и диантусов, размер M</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>2950</v>
+        <v>3800</v>
       </c>
       <c r="C307" t="inlineStr"/>
       <c r="D307" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1763-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1764-s.jpeg</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/duo-buket-iz-gortenzii-i-diantusov-razmer-s.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/duo-buket-iz-gortenzii-i-diantusov-razmer-m.html</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Дуо-букет из гортензии и диантусов, размер M</t>
+          <t>Дуо-букет из диантусов и танацетума,размер S</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>3900</v>
+        <v>2125</v>
       </c>
       <c r="C308" t="inlineStr"/>
       <c r="D308" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1764-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1765-s.jpeg</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/duo-buket-iz-gortenzii-i-diantusov-razmer-m.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/duo-buket-iz-diantusov-i-tanatsetuma-razmer-s.html</t>
         </is>
       </c>
     </row>
@@ -6914,206 +6914,206 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>2245</v>
+        <v>2125</v>
       </c>
       <c r="C309" t="inlineStr"/>
       <c r="D309" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1765-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1766-s.jpeg</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/duo-buket-iz-diantusov-i-tanatsetuma-razmer-s.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/duo-buket-iz-diantusov-i-tanatsetuma-razmer-s_.html</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Дуо-букет из диантусов и танацетума,размер S</t>
+          <t>Композиция 1767</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>2245</v>
+        <v>2085</v>
       </c>
       <c r="C310" t="inlineStr"/>
       <c r="D310" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1766-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1767-s.jpeg</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/duo-buket-iz-diantusov-i-tanatsetuma-razmer-s_.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/kompozitsiya____________________________.html</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Композиция 1767</t>
+          <t>Дуо-букет из гортензии и кустовых роз, размер S</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>2235</v>
+        <v>3150</v>
       </c>
       <c r="C311" t="inlineStr"/>
       <c r="D311" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1767-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1797-s.jpeg</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/kompozitsiya____________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/duo-buket-iz-gortenzii-i-kustovykh-roz-razmer-s.html</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Дуо-букет из гортензии и кустовых роз, размер S</t>
+          <t>Дуо-букет из гортензии и кустовых роз, размер M</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>3250</v>
+        <v>6249</v>
       </c>
       <c r="C312" t="inlineStr"/>
       <c r="D312" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1797-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1798-s.jpeg</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/duo-buket-iz-gortenzii-i-kustovykh-roz-razmer-s.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/duo-buket-iz-gortenzii-i-kustovykh-roz-razmer-m.html</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Дуо-букет из гортензии и кустовых роз, размер M</t>
+          <t>Дуо-букет из гортензии и танацетума, размер S</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>4350</v>
+        <v>1850</v>
       </c>
       <c r="C313" t="inlineStr"/>
       <c r="D313" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1798-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1799-s.jpeg</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/duo-buket-iz-gortenzii-i-kustovykh-roz-razmer-m.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/duo-buket-iz-gortenzii-i-tanatsetuma-razmer-s.html</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Дуо-букет из гортензии и танацетума, размер S</t>
+          <t>Дуо-букет из гортензии и танацетума, размер М</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>2130</v>
+        <v>2575</v>
       </c>
       <c r="C314" t="inlineStr"/>
       <c r="D314" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1799-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1800-s.jpeg</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/duo-buket-iz-gortenzii-i-tanatsetuma-razmer-s.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/____________________________________________________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Дуо-букет из гортензии и танацетума, размер М</t>
+          <t>Моно-букет из кустовой розы Lady Bombastic, размер M</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>2995</v>
+        <v>4800</v>
       </c>
       <c r="C315" t="inlineStr"/>
       <c r="D315" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1800-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1806-s.jpeg</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/____________________________________________________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/mono_rozy/mono-buket-iz-kustovoi-rozy-lady-bombastic-razmer-m.html</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Моно-букет из кустовой розы Lady Bombastic, размер M</t>
+          <t>Букет из гортензий, размер S</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>4800</v>
+        <v>2100</v>
       </c>
       <c r="C316" t="inlineStr"/>
       <c r="D316" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1806-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1809-s.jpeg</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/mono_rozy/mono-buket-iz-kustovoi-rozy-lady-bombastic-razmer-m.html</t>
+          <t>https://gift2gift.ru/catalog/monobukety/buket-iz-gortenzii-razmer-s_.html</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Букет из гортензий, размер S</t>
+          <t>Букетз из гортензии, размер S</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="C317" t="inlineStr"/>
       <c r="D317" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1809-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1810-s.jpeg</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/monobukety/buket-iz-gortenzii-razmer-s_.html</t>
+          <t>https://gift2gift.ru/catalog/monobukety/buketz-iz-gortenzii-razmer-s.html</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Букетз из гортензии, размер S</t>
+          <t>Цветочная композиция для кензана</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>2300</v>
+        <v>2410</v>
       </c>
       <c r="C318" t="inlineStr"/>
       <c r="D318" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1810-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1811-s.jpeg</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/monobukety/buketz-iz-gortenzii-razmer-s.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/tsvetochnaya-kompozitsiya-dlya-kenzana.html</t>
         </is>
       </c>
     </row>
@@ -7124,659 +7124,659 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>2410</v>
+        <v>3020</v>
       </c>
       <c r="C319" t="inlineStr"/>
       <c r="D319" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1811-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1812-s.jpeg</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/tsvetochnaya-kompozitsiya-dlya-kenzana.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/tsvetochnaya-kompozitsiya-dlya-kenzana_.html</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Цветочная композиция для кензана</t>
+          <t>Букет 1846</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>3020</v>
+        <v>4175</v>
       </c>
       <c r="C320" t="inlineStr"/>
       <c r="D320" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1812-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1846-s.jpeg</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/tsvetochnaya-kompozitsiya-dlya-kenzana_.html</t>
+          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/__________________________________________________________________________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Букет 1846</t>
+          <t>Букет 1848</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>4175</v>
+        <v>4760</v>
       </c>
       <c r="C321" t="inlineStr"/>
       <c r="D321" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1846-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1848-s.jpeg</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/__________________________________________________________________________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/___________________________________________________________________________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Букет 1848</t>
+          <t>Букет 1850</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>4760</v>
+        <v>6500</v>
       </c>
       <c r="C322" t="inlineStr"/>
       <c r="D322" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1848-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1850-s.jpeg</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/___________________________________________________________________________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/____________________________________________________________________________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Букет 1850</t>
+          <t>Букет 1851</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>6600</v>
+        <v>2315</v>
       </c>
       <c r="C323" t="inlineStr"/>
       <c r="D323" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1850-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1851-s.jpeg</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/____________________________________________________________________________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/_____________________________________________________________________________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Букет 1851</t>
+          <t>Букет 1852</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>2315</v>
+        <v>3490</v>
       </c>
       <c r="C324" t="inlineStr"/>
       <c r="D324" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1851-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1852-s.jpeg</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/_____________________________________________________________________________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/______________________________________________________________________________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Букет 1852</t>
+          <t>Букет 1856</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>3490</v>
+        <v>2700</v>
       </c>
       <c r="C325" t="inlineStr"/>
       <c r="D325" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1852-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1856-s.jpeg</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/______________________________________________________________________________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/_________________________________________________________________________________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Букет 1856</t>
+          <t>Букет 1857</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>2700</v>
+        <v>3040</v>
       </c>
       <c r="C326" t="inlineStr"/>
       <c r="D326" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1856-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1857-s.jpeg</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/_________________________________________________________________________________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/__________________________________________________________________________________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="327">
-      <c r="A327" t="inlineStr">
-        <is>
-          <t>Букет 1857</t>
-        </is>
-      </c>
+      <c r="A327" t="inlineStr"/>
       <c r="B327" t="n">
-        <v>3040</v>
+        <v>2400</v>
       </c>
       <c r="C327" t="inlineStr"/>
       <c r="D327" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1857-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1858-s.jpeg</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/__________________________________________________________________________________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/___________________________________________________________________________________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="328">
-      <c r="A328" t="inlineStr"/>
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>1859</t>
+        </is>
+      </c>
       <c r="B328" t="n">
-        <v>2700</v>
+        <v>2005</v>
       </c>
       <c r="C328" t="inlineStr"/>
       <c r="D328" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1858-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1859-s.jpeg</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/___________________________________________________________________________________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/____________________________________________________________________________________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>1859</t>
+          <t>1860</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>2105</v>
+        <v>4450</v>
       </c>
       <c r="C329" t="inlineStr"/>
       <c r="D329" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1859-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1860-s.jpeg</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/____________________________________________________________________________________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/_____________________________________________________________________________________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>1860</t>
+          <t>Букет 1155</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>4450</v>
+        <v>3075</v>
       </c>
       <c r="C330" t="inlineStr"/>
       <c r="D330" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1860-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1864-s.jpeg</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/_____________________________________________________________________________________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/buket-1155_.html</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Букет 1155</t>
+          <t>Букет 1865</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>3115</v>
+        <v>3620</v>
       </c>
       <c r="C331" t="inlineStr"/>
       <c r="D331" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1864-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1865-s.jpeg</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/buket-1155_.html</t>
+          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/buket-2089.html</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Букет 1865</t>
+          <t>Букет 2078</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>3720</v>
+        <v>3400</v>
       </c>
       <c r="C332" t="inlineStr"/>
       <c r="D332" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1865-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1867-s.jpeg</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/buket-2089.html</t>
+          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/buket-2078.html</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Букет 2078</t>
+          <t>Букет 527</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>3400</v>
+        <v>3460</v>
       </c>
       <c r="C333" t="inlineStr"/>
       <c r="D333" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1867-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1868-s.jpeg</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/buket-2078.html</t>
+          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/buket-2081.html</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Букет 527</t>
+          <t>1870</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>3460</v>
+        <v>3040</v>
       </c>
       <c r="C334" t="inlineStr"/>
       <c r="D334" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1868-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1870-s.jpeg</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/buket-2081.html</t>
+          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/_______________________________________________________________________________________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>1870</t>
+          <t>1872</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>3040</v>
+        <v>2925</v>
       </c>
       <c r="C335" t="inlineStr"/>
       <c r="D335" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1870-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1872-s.jpeg</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/_______________________________________________________________________________________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/________________________________________________________________________________________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>1872</t>
+          <t>1873</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>2965</v>
+        <v>4050</v>
       </c>
       <c r="C336" t="inlineStr"/>
       <c r="D336" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1872-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1873-s.jpeg</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/________________________________________________________________________________________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/_________________________________________________________________________________________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>1873</t>
+          <t>Букет 2090</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>4050</v>
+        <v>3800</v>
       </c>
       <c r="C337" t="inlineStr"/>
       <c r="D337" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1873-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1875-s.jpeg</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/_________________________________________________________________________________________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/buket-2090.html</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Букет 2090</t>
+          <t>Букет 1876</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>3800</v>
+        <v>3660</v>
       </c>
       <c r="C338" t="inlineStr"/>
       <c r="D338" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1875-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1876-s.jpeg</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/buket-2090.html</t>
+          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/buket-2091.html</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Букет 1876</t>
+          <t>1883</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>3760</v>
+        <v>4050</v>
       </c>
       <c r="C339" t="inlineStr"/>
       <c r="D339" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1876-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1883-s.jpeg</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/buket-2091.html</t>
+          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/__________________________________________________________________________________________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>1883</t>
+          <t>Оригинальная игрушка Лабубу</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>4050</v>
+        <v>6500</v>
       </c>
       <c r="C340" t="inlineStr"/>
       <c r="D340" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1883-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/2063-s.jpeg</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/__________________________________________________________________________________________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/aksessuary-i-otkrytki/labubu.html</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Оригинальная игрушка Лабубу</t>
+          <t>Сборный букет №102</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>6500</v>
+        <v>5520</v>
       </c>
       <c r="C341" t="inlineStr"/>
       <c r="D341" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/2063-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/2189-s.jpeg</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/aksessuary-i-otkrytki/labubu.html</t>
+          <t>https://gift2gift.ru/catalog/mono_rozy/sbornyi-buket-102.html</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Сборный букет №102</t>
+          <t>Сборный букет №103</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>5520</v>
+        <v>5800</v>
       </c>
       <c r="C342" t="inlineStr"/>
       <c r="D342" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/2189-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/2190-s.jpeg</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/mono_rozy/sbornyi-buket-102.html</t>
+          <t>https://gift2gift.ru/catalog/mono_rozy/sbornyi-buket-103.html</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Сборный букет №103</t>
+          <t>Сборный букет №104</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>5800</v>
+        <v>4900</v>
       </c>
       <c r="C343" t="inlineStr"/>
       <c r="D343" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/2190-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/2191-s.jpeg</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/mono_rozy/sbornyi-buket-103.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/sbornyi-buket-104.html</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Сборный букет №104</t>
+          <t>Сборный букет №105</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>4900</v>
+        <v>5820</v>
       </c>
       <c r="C344" t="inlineStr"/>
       <c r="D344" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/2191-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/2215-s.jpeg</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/sbornyi-buket-104.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-svyshe-5000/sbornyi-buket-105.html</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Сборный букет №105</t>
+          <t>Сборный букет №106</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>5820</v>
+        <v>5410</v>
       </c>
       <c r="C345" t="inlineStr"/>
       <c r="D345" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/2215-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/2216-s.jpeg</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-svyshe-5000/sbornyi-buket-105.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/sbornyi-buket-106.html</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Сборный букет №106</t>
+          <t>Оригинальная игрушка Стич</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>5410</v>
+        <v>5000</v>
       </c>
       <c r="C346" t="inlineStr"/>
       <c r="D346" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/2216-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/2221-s.jpeg</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/sbornyi-buket-106.html</t>
+          <t>https://gift2gift.ru/catalog/aksessuary-i-otkrytki/originalnaya-igrushka-stich.html</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Оригинальная игрушка Стич</t>
+          <t>Сборный букет №107</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>5000</v>
+        <v>4280</v>
       </c>
       <c r="C347" t="inlineStr"/>
       <c r="D347" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/2221-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/2237-s.jpeg</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/aksessuary-i-otkrytki/originalnaya-igrushka-stich.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/sbornyi-buket-107.html</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Сборный букет №107</t>
+          <t>Сборный букет №108</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>4280</v>
+        <v>4150</v>
       </c>
       <c r="C348" t="inlineStr"/>
       <c r="D348" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/2237-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/2238-s.jpeg</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/sbornyi-buket-107.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/sbornyi-buket-108.html</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Сборный букет №108</t>
+          <t>Букет 2243</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>4210</v>
+        <v>4750</v>
       </c>
       <c r="C349" t="inlineStr"/>
       <c r="D349" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/2238-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/2243-s.jpeg</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/sbornyi-buket-108.html</t>
+          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/_______________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Букет 2243</t>
+          <t>Букет 2244</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>4750</v>
+        <v>3900</v>
       </c>
       <c r="C350" t="inlineStr"/>
       <c r="D350" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/2243-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/2244-s.jpeg</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
@@ -7788,19 +7788,40 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Букет 2244</t>
+          <t>Букет 2264</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>3900</v>
+        <v>5050</v>
       </c>
       <c r="C351" t="inlineStr"/>
       <c r="D351" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/2244-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/2264-s.jpeg</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
+        <is>
+          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/_______________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Букет 2265</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>2735</v>
+      </c>
+      <c r="C352" t="inlineStr"/>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>https://gift2gift.ru/img/work/nomencl/2265-s.jpeg</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
         <is>
           <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/_______________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________.html</t>
         </is>

--- a/feed_converted.xlsx
+++ b/feed_converted.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E352"/>
+  <dimension ref="A1:E360"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7603,7 +7603,7 @@
         </is>
       </c>
       <c r="B342" t="n">
-        <v>5800</v>
+        <v>6200</v>
       </c>
       <c r="C342" t="inlineStr"/>
       <c r="D342" t="inlineStr">
@@ -7824,6 +7824,174 @@
       <c r="E352" t="inlineStr">
         <is>
           <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/_______________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Букет 2286</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>4600</v>
+      </c>
+      <c r="C353" t="inlineStr"/>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>https://gift2gift.ru/img/work/nomencl/2286-s.jpeg</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/_______________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Букет 2287</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>4250</v>
+      </c>
+      <c r="C354" t="inlineStr"/>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>https://gift2gift.ru/img/work/nomencl/2287-s.jpeg</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/_______________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Сборный букет №111</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>4250</v>
+      </c>
+      <c r="C355" t="inlineStr"/>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>https://gift2gift.ru/img/work/nomencl/2300-s.jpeg</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/sbornyi-buket-111.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Сборный букет №112</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>4600</v>
+      </c>
+      <c r="C356" t="inlineStr"/>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>https://gift2gift.ru/img/work/nomencl/2301-s.jpeg</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/sbornyi-buket-112.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Композиция 111</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>2730</v>
+      </c>
+      <c r="C357" t="inlineStr"/>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>https://gift2gift.ru/img/work/nomencl/2302-s.jpeg</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>https://gift2gift.ru/catalog/cvety_v_korobke/kompozitsiya-111.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Композиция 112</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>2545</v>
+      </c>
+      <c r="C358" t="inlineStr"/>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>https://gift2gift.ru/img/work/nomencl/2303-s.jpeg</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>https://gift2gift.ru/catalog/cvety_v_korobke/kompozitsiya-112.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Композиция 113</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>2370</v>
+      </c>
+      <c r="C359" t="inlineStr"/>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>https://gift2gift.ru/img/work/nomencl/2304-s.jpeg</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>https://gift2gift.ru/catalog/cvety_v_korobke/kompozitsiya-113.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Композиция 114</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>2170</v>
+      </c>
+      <c r="C360" t="inlineStr"/>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>https://gift2gift.ru/img/work/nomencl/2305-s.jpeg</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>https://gift2gift.ru/catalog/cvety_v_korobke/_______________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>

--- a/feed_converted.xlsx
+++ b/feed_converted.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E360"/>
+  <dimension ref="A1:E356"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
@@ -593,7 +593,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
@@ -719,7 +719,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
@@ -1181,7 +1181,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1250</v>
+        <v>1500</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>5950</v>
+        <v>6400</v>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
@@ -1433,7 +1433,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>2250</v>
+        <v>2350</v>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
@@ -1475,7 +1475,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>2350</v>
+        <v>2250</v>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>3130</v>
+        <v>3180</v>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
@@ -1517,7 +1517,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>2350</v>
+        <v>2300</v>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
@@ -1538,7 +1538,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2350</v>
+        <v>2300</v>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
@@ -1559,12 +1559,12 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>5050</v>
+        <v>5200</v>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/726-s.jpg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/726-s.jpeg</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1580,7 +1580,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>2100</v>
+        <v>2300</v>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
@@ -1601,7 +1601,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>2120</v>
+        <v>2150</v>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
@@ -1643,7 +1643,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>4280</v>
+        <v>4450</v>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
@@ -1664,7 +1664,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>3050</v>
+        <v>3200</v>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>8530</v>
+        <v>8900</v>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
@@ -1706,7 +1706,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>10850</v>
+        <v>10650</v>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
@@ -1727,7 +1727,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>21750</v>
+        <v>22300</v>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
@@ -1748,7 +1748,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>9840</v>
+        <v>9990</v>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
@@ -1769,7 +1769,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>14590</v>
+        <v>14800</v>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
@@ -1790,7 +1790,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>3860</v>
+        <v>3910</v>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
@@ -1811,7 +1811,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>3690</v>
+        <v>4000</v>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>5130</v>
+        <v>5000</v>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
@@ -1874,7 +1874,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>3250</v>
+        <v>3400</v>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
@@ -1895,7 +1895,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>4100</v>
+        <v>4025</v>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
@@ -1912,28 +1912,28 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Букет 983</t>
+          <t>Композиция 991</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>2600</v>
+        <v>2300</v>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/983-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/991-s.jpeg</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket-983.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/kompozitsiya-991.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Композиция 991</t>
+          <t>Композиция 994</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1942,208 +1942,208 @@
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/991-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/994-s.jpeg</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/kompozitsiya-991.html</t>
+          <t>https://gift2gift.ru/catalog/cvety_v_korobke/kompozitsiya-994.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Композиция 994</t>
+          <t>Букет 997</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>2100</v>
+        <v>4400</v>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/994-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/997-s.jpeg</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/cvety_v_korobke/kompozitsiya-994.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket-997.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Букет 997</t>
+          <t>Композиция 1001</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>4470</v>
+        <v>3125</v>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/997-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1001-s.jpeg</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket-997.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/kompozitsiya-1001.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Композиция 1001</t>
+          <t>Композиция 1002</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>3125</v>
+        <v>1625</v>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1001-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1002-s.jpeg</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/kompozitsiya-1001.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/kompozitsiya-1002.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Композиция 1002</t>
+          <t>Букет 1008</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1625</v>
+        <v>3600</v>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1002-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1008-s.jpeg</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/kompozitsiya-1002.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket-1008.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Букет 1008</t>
+          <t>Букет 1011</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>3590</v>
+        <v>5000</v>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1008-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1011-s.jpeg</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket-1008.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket-1011.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Букет 1011</t>
+          <t>Букет 1012</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>4850</v>
+        <v>4050</v>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1011-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1012-s.jpeg</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket-1011.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket-1012.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Букет 1012</t>
+          <t>Букет 1013</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>4280</v>
+        <v>4350</v>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1012-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1013-s.jpeg</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket-1012.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket-1013.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Букет 1013</t>
+          <t>Композиция 1017</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>4580</v>
+        <v>2460</v>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1013-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1017-s.jpeg</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket-1013.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/kompozitsiya-1017.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Композиция 1017</t>
+          <t>Ваза с узорами, 26,5 см</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>2560</v>
+        <v>2800</v>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1017-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1048-s.jpeg</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/kompozitsiya-1017.html</t>
+          <t>https://gift2gift.ru/catalog/vazy-i-kashpo/vaza-s-uzorami-26-5-sm.html</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Ваза с узорами, 26,5 см</t>
+          <t>Ваза с узорами, 24 см</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -2152,40 +2152,40 @@
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1048-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1049-s.jpeg</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/vazy-i-kashpo/vaza-s-uzorami-26-5-sm.html</t>
+          <t>https://gift2gift.ru/catalog/vazy-i-kashpo/vaza-s-uzorami-24-sm.html</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Ваза с узорами, 24 см</t>
+          <t>Ваза цилиндр, зеленое стекло, 25,5 см</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1049-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1050-s.jpeg</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/vazy-i-kashpo/vaza-s-uzorami-24-sm.html</t>
+          <t>https://gift2gift.ru/catalog/vazy-i-kashpo/vaza-tsilindr-zelenoe-steklo-25-5-sm.html</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Ваза цилиндр, зеленое стекло, 25,5 см</t>
+          <t>Ваза цилиндр, серое стекло, 25,5 см</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -2194,40 +2194,40 @@
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1050-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1051-s.jpeg</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/vazy-i-kashpo/vaza-tsilindr-zelenoe-steklo-25-5-sm.html</t>
+          <t>https://gift2gift.ru/catalog/vazy-i-kashpo/vaza-tsilindr-seroe-steklo-25-5-sm.html</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Ваза цилиндр, серое стекло, 25,5 см</t>
+          <t>Ваза зеленое стекло, 20 см</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>2300</v>
+        <v>1800</v>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1051-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1052-s.jpeg</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/vazy-i-kashpo/vaza-tsilindr-seroe-steklo-25-5-sm.html</t>
+          <t>https://gift2gift.ru/catalog/vazy-i-kashpo/vaza-zelenoe-steklo-20-sm.html</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Ваза зеленое стекло, 20 см</t>
+          <t>Ваза серое стекло, 20 см</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -2236,40 +2236,40 @@
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1052-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1053-s.jpeg</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/vazy-i-kashpo/vaza-zelenoe-steklo-20-sm.html</t>
+          <t>https://gift2gift.ru/catalog/vazy-i-kashpo/vaza-seroe-steklo-20-sm.html</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Ваза серое стекло, 20 см</t>
+          <t>Ваза черная, 20см</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1053-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1054-s.jpeg</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/vazy-i-kashpo/vaza-seroe-steklo-20-sm.html</t>
+          <t>https://gift2gift.ru/catalog/vazy-i-kashpo/vaza-chernaya-20sm.html</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Ваза черная, 20см</t>
+          <t>Ваза цвета слоновой кости, 20 см</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -2278,943 +2278,943 @@
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1054-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1055-s.jpeg</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/vazy-i-kashpo/vaza-chernaya-20sm.html</t>
+          <t>https://gift2gift.ru/catalog/vazy-i-kashpo/vaza-tsveta-slonovoi-kosti-20-sm.html</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Ваза цвета слоновой кости, 20 см</t>
+          <t>Композиция 1082</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1500</v>
+        <v>2480</v>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1055-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1082-s.jpeg</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/vazy-i-kashpo/vaza-tsveta-slonovoi-kosti-20-sm.html</t>
+          <t>https://gift2gift.ru/catalog/cvety_v_korobke/kompozitsiya___.html</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Композиция 1082</t>
+          <t>Композиция 1089</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>2580</v>
+        <v>2600</v>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1082-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1089-s.jpeg</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/cvety_v_korobke/kompozitsiya___.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/kompozitsiya____.html</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Композиция 1089</t>
+          <t>Композиция 1102</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>2520</v>
+        <v>3100</v>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1089-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1102-s.jpeg</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/kompozitsiya____.html</t>
+          <t>https://gift2gift.ru/catalog/cvety_v_korobke/kompozitsiya_____.html</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Композиция 1102</t>
+          <t>Букет 1119</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>3020</v>
+        <v>3600</v>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1102-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1119-s.jpeg</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/cvety_v_korobke/kompozitsiya_____.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket______________.html</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Букет 1119</t>
+          <t>Композиция 1146</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>3450</v>
+        <v>2530</v>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1119-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1146-s.jpeg</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket______________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/kompozitsiya______.html</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Композиция 1146</t>
+          <t>Букет 1205</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>2530</v>
+        <v>3600</v>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1146-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1205-s.jpeg</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/kompozitsiya______.html</t>
+          <t>https://gift2gift.ru/catalog/buket____________________.html</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Букет 1205</t>
+          <t>Букет 1207</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>3490</v>
+        <v>3350</v>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1205-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1207-s.jpeg</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/buket____________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket_____________________.html</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Букет 1207</t>
+          <t>Композиция 1209</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>3400</v>
+        <v>2150</v>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1207-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1209-s.jpeg</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket_____________________.html</t>
+          <t>https://gift2gift.ru/catalog/cvety_v_korobke/kompozitsiya________.html</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Композиция 1209</t>
+          <t>Букет роз Pink Mondial,размер M</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>2150</v>
+        <v>3250</v>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1209-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1210-s.jpeg</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/cvety_v_korobke/kompozitsiya________.html</t>
+          <t>https://gift2gift.ru/catalog/monobukety/buket______________________.html</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Букет роз Pink Mondial,размер M</t>
+          <t>Букет 1212</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>3000</v>
+        <v>3850</v>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1210-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1212-s.jpeg</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/monobukety/buket______________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket________________________.html</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Букет 1212</t>
+          <t>Букет из кустовых роз Madam Bombastic,размер S</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>3850</v>
+        <v>3450</v>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1212-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1214-s.jpeg</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket________________________.html</t>
+          <t>https://gift2gift.ru/catalog/mono_rozy/buket-1214.html</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Букет из кустовых роз Madam Bombastic,размер S</t>
+          <t>Букет 1222</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>3200</v>
+        <v>2250</v>
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1214-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1222-s.jpeg</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/mono_rozy/buket-1214.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket__________________________.html</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Букет 1222</t>
+          <t>Букет 1223</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>2400</v>
+        <v>3780</v>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1222-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1223-s.jpeg</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket__________________________.html</t>
+          <t>https://gift2gift.ru/catalog/buket___________________________.html</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Букет 1223</t>
+          <t>Букет 1225</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>3440</v>
+        <v>2900</v>
       </c>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1223-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1225-s.jpeg</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/buket___________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/buket_____________________________.html</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Букет 1225</t>
+          <t>Композиция 1226</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>2720</v>
+        <v>2550</v>
       </c>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1225-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1226-s.jpeg</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/buket_____________________________.html</t>
+          <t>https://gift2gift.ru/catalog/kompozitsiya_________.html</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Композиция 1226</t>
+          <t>Букет 1227</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>2470</v>
+        <v>4610</v>
       </c>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1226-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1227-s.jpeg</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/kompozitsiya_________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket______________________________.html</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Букет 1227</t>
+          <t>Букет роз Mandarin, размер M</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>4620</v>
+        <v>4050</v>
       </c>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1227-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1229-s.jpeg</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket______________________________.html</t>
+          <t>https://gift2gift.ru/catalog/mono_rozy/buket-1229.html</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Букет роз Mandarin, размер M</t>
+          <t>Букет 1231</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>3780</v>
+        <v>2950</v>
       </c>
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1229-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1231-s.jpeg</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/mono_rozy/buket-1229.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/buket_______________________________.html</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Букет 1231</t>
+          <t>Букет 1232</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>2750</v>
+        <v>5440</v>
       </c>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1231-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1232-s.jpeg</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/buket_______________________________.html</t>
+          <t>https://gift2gift.ru/catalog/buket________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Букет 1232</t>
+          <t>Букет 1234</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>5230</v>
+        <v>2550</v>
       </c>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1232-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1234-s.jpeg</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/buket________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket_______________________.html</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Букет 1234</t>
+          <t>Букет 1235</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>2400</v>
+        <v>2950</v>
       </c>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1234-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1235-s.jpeg</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket_______________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/buket__________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Букет 1235</t>
+          <t>Букет 1236</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>2950</v>
+        <v>2150</v>
       </c>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1235-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1236-s.jpeg</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/buket__________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/buket___________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Букет 1236</t>
+          <t>Букет 1237</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>2100</v>
+        <v>4850</v>
       </c>
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1236-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1237-s.jpeg</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/buket___________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket____________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Букет 1237</t>
+          <t>Композиция 1238</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>4820</v>
+        <v>2200</v>
       </c>
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1237-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1238-s.jpeg</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket____________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/cvety_v_korobke/kompozitsiya__________.html</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Композиция 1238</t>
+          <t>Букет 1252</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>2300</v>
+        <v>2870</v>
       </c>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1238-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1252-s.jpeg</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/cvety_v_korobke/kompozitsiya__________.html</t>
+          <t>https://gift2gift.ru/catalog/buket_____________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Букет 1252</t>
+          <t>Букет 1253</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>2820</v>
+        <v>5000</v>
       </c>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1252-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1253-s.jpeg</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/buket_____________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket______________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Букет 1253</t>
+          <t>Букет 1254</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>4950</v>
+        <v>4550</v>
       </c>
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1253-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1254-s.jpeg</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket______________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket_______________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Букет 1254</t>
+          <t>Композиция 1255</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>4150</v>
+        <v>2520</v>
       </c>
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1254-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1255-s.jpeg</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket_______________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/cvety_v_korobke/kompozitsiya___________.html</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Композиция 1255</t>
+          <t>Букет 1258</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>2470</v>
+        <v>4450</v>
       </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1255-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1258-s.jpeg</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/cvety_v_korobke/kompozitsiya___________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket__________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Букет 1258</t>
+          <t>Букет 1000</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>4500</v>
+        <v>4450</v>
       </c>
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1258-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1274.jpeg</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket__________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-1000_1274.html</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Букет 1000</t>
+          <t>Букет 1005</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>4460</v>
+        <v>3850</v>
       </c>
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1274.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1276.jpeg</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-1000_1274.html</t>
+          <t>https://gift2gift.ru/catalog/monobukety/buket-1005_1276.html</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Букет 1005</t>
+          <t>Букет 1016</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>3700</v>
+        <v>4750</v>
       </c>
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1276.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1277.jpeg</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/monobukety/buket-1005_1276.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-1016_1277.html</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Букет 1016</t>
+          <t>Букет 1029</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>4760</v>
+        <v>4550</v>
       </c>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1277.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1279.jpeg</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-1016_1277.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-1029_1279.html</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Букет 1029</t>
+          <t>Букет 1030</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>4550</v>
+        <v>2800</v>
       </c>
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1279.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1280.jpeg</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-1029_1279.html</t>
+          <t>https://gift2gift.ru/catalog/monobukety/buket-1030_1280.html</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Букет 1030</t>
+          <t>Букет 1033</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>2900</v>
+        <v>3650</v>
       </c>
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1280.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1281.jpeg</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/monobukety/buket-1030_1280.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket-1033_1281.html</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Букет 1033</t>
+          <t>Букет 1034</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>3650</v>
+        <v>3450</v>
       </c>
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1281.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1282.jpeg</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket-1033_1281.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket-1034_1282.html</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Букет 1034</t>
+          <t>Букет 1035</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>3450</v>
+        <v>3700</v>
       </c>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1282.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1286.jpeg</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket-1034_1282.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket-1035_1286.html</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Букет 1035</t>
+          <t>Букет 1036</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>3800</v>
+        <v>4050</v>
       </c>
       <c r="C126" t="inlineStr"/>
       <c r="D126" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1286.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1287.jpeg</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket-1035_1286.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket-1036_1287.html</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Букет 1036</t>
+          <t>Букет 1037</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>4300</v>
+        <v>3400</v>
       </c>
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1287.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1288.jpeg</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket-1036_1287.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket-1037_1288.html</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Букет 1037</t>
+          <t>Букет 1039</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>3400</v>
+        <v>4000</v>
       </c>
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1288.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1290.jpeg</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket-1037_1288.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket-1039_1290.html</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Букет 1039</t>
+          <t>Букет 1040</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>4100</v>
+        <v>3650</v>
       </c>
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1290.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1291.jpeg</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket-1039_1290.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket-1040_1291.html</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Букет 1040</t>
+          <t>Букет 1041</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>3750</v>
+        <v>2500</v>
       </c>
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1291.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1292.jpeg</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket-1040_1291.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket-1041_1292.html</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Букет 1041</t>
+          <t>Букет 1043</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>2500</v>
+        <v>4600</v>
       </c>
       <c r="C131" t="inlineStr"/>
       <c r="D131" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1292.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1293.jpeg</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket-1041_1292.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-1043_1293.html</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Букет 1043</t>
+          <t>Букет 1047</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>4350</v>
+        <v>3350</v>
       </c>
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1293.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1295.jpeg</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-1043_1293.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-1047_1295.html</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Букет 1047</t>
+          <t>Букет 1059</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -3223,2602 +3223,2602 @@
       <c r="C133" t="inlineStr"/>
       <c r="D133" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1295.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1296.jpeg</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-1047_1295.html</t>
+          <t>https://gift2gift.ru/catalog/monobukety/kopiya-buket-1059.html</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Букет 1059</t>
+          <t>Букет 1061</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>3150</v>
+        <v>4400</v>
       </c>
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1296.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1298.jpeg</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/monobukety/kopiya-buket-1059.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket-1061_1298.html</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Букет 1061</t>
+          <t>Дуо-букет из диантусов и танацетума,размер М</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>4230</v>
+        <v>2950</v>
       </c>
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1298.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1299-s.jpeg</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket-1061_1298.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-1062_1299.html</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Дуо-букет из диантусов и танацетума,размер М</t>
+          <t>Букет 1063</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>2850</v>
+        <v>3250</v>
       </c>
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1299-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1300.jpeg</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-1062_1299.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket-1063_1300.html</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Букет 1063</t>
+          <t>Букет 1064</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="C137" t="inlineStr"/>
       <c r="D137" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1300.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1301.jpeg</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket-1063_1300.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket-1064_1301.html</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Букет 1064</t>
+          <t>Букет 1065</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>3700</v>
+        <v>2900</v>
       </c>
       <c r="C138" t="inlineStr"/>
       <c r="D138" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1301.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1302.jpeg</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket-1064_1301.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket-1065_1302.html</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Букет 1065</t>
+          <t>Букет 1066</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>2550</v>
+        <v>5450</v>
       </c>
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1302.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1303.jpeg</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket-1065_1302.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-svyshe-5000/buket-1066_1303.html</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Букет 1066</t>
+          <t>Букет 1068</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>5340</v>
+        <v>4800</v>
       </c>
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1303.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1304.jpeg</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-svyshe-5000/buket-1066_1303.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-1068.html</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Букет 1068</t>
+          <t>Букет 1069</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>4900</v>
+        <v>4000</v>
       </c>
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1304.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1305.jpeg</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-1068.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-1069.html</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Букет 1069</t>
+          <t>Букет 1070</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>3710</v>
+        <v>3450</v>
       </c>
       <c r="C142" t="inlineStr"/>
       <c r="D142" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1305.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1306.jpeg</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-1069.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-1070.html</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Букет 1070</t>
+          <t>Букет 1071</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>3550</v>
+        <v>5050</v>
       </c>
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1306.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1308.jpeg</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-1070.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-1071.html</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Букет 1071</t>
+          <t>Букет 1072</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>5060</v>
+        <v>4000</v>
       </c>
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1308.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1309.jpeg</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-1071.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-1072.html</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Букет 1072</t>
+          <t>Букет 1074</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>4010</v>
+        <v>5550</v>
       </c>
       <c r="C145" t="inlineStr"/>
       <c r="D145" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1309.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1310.jpeg</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-1072.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket-1074_1310.html</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Букет 1074</t>
+          <t>Букет 1075</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>5240</v>
+        <v>3050</v>
       </c>
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1310.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1311.jpeg</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket-1074_1310.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket-1075_1311.html</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Букет 1075</t>
+          <t>Букет 1076</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>3150</v>
+        <v>4250</v>
       </c>
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1311.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1312.jpeg</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket-1075_1311.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket-1076_1312.html</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Букет 1076</t>
+          <t>Букет 1083</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>4250</v>
+        <v>4400</v>
       </c>
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1312.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1313.jpeg</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket-1076_1312.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-1083.html</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Букет 1083</t>
+          <t>Букет 1091</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>4470</v>
+        <v>3600</v>
       </c>
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1313.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1315.jpeg</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-1083.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket-1091.html</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Букет 1091</t>
+          <t>Букет 1092</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>3400</v>
+        <v>4100</v>
       </c>
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1315.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1316.jpeg</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket-1091.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket-1092.html</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Букет 1092</t>
+          <t>Букет 1322</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>4250</v>
+        <v>3550</v>
       </c>
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1316.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1322-s.jpeg</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket-1092.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket_____________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Букет 1322</t>
+          <t>Букет 1101</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>3650</v>
+        <v>3100</v>
       </c>
       <c r="C152" t="inlineStr"/>
       <c r="D152" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1322-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1341.jpeg</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket_____________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/buket-1101.html</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Букет 1101</t>
+          <t>Букет из кустовых гвоздик</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>3200</v>
+        <v>2350</v>
       </c>
       <c r="C153" t="inlineStr"/>
       <c r="D153" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1341.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1344-s.jpeg</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/buket-1101.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/buket-392.html</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Букет из кустовых гвоздик</t>
+          <t>Букет 1086</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>2350</v>
+        <v>4800</v>
       </c>
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1344-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1350.jpeg</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/buket-392.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-1086.html</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Букет 1086</t>
+          <t>Букет 1088</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>4725</v>
+        <v>3880</v>
       </c>
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1350.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1351.jpeg</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-1086.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-1088.html</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Букет 1088</t>
+          <t>Букет 1090</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>4030</v>
+        <v>3550</v>
       </c>
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1351.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1352.jpeg</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-1088.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-1090.html</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Букет 1090</t>
+          <t>Букет 1100</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>3650</v>
+        <v>3500</v>
       </c>
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1352.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1353.jpeg</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-1090.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-1100.html</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Букет 1100</t>
+          <t>Композиция 1354</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>3600</v>
+        <v>2255</v>
       </c>
       <c r="C158" t="inlineStr"/>
       <c r="D158" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1353.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1354-s.jpeg</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-1100.html</t>
+          <t>https://gift2gift.ru/catalog/cvety_v_korobke/kompozitsiya____________.html</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Композиция 1354</t>
+          <t>Букет 1355</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>2255</v>
+        <v>3100</v>
       </c>
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1354-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1355-s.jpeg</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/cvety_v_korobke/kompozitsiya____________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Букет 1355</t>
+          <t>Букет 1356</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>2950</v>
+        <v>3430</v>
       </c>
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1355-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1356-s.jpeg</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket-1356.html</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Букет 1356</t>
+          <t>Букет 249</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>3230</v>
+        <v>5970</v>
       </c>
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1356-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1357.JPG</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket-1356.html</t>
+          <t>https://gift2gift.ru/catalog/mono_rozy/buket-249.html</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Букет 249</t>
+          <t>Букет 296</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>7850</v>
+        <v>4800</v>
       </c>
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1357.JPG</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1358.jpg</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/mono_rozy/buket-249.html</t>
+          <t>https://gift2gift.ru/catalog/mono_rozy/buket-296.html</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Букет 296</t>
+          <t>Дуо-букет из Lady Bombastic и танацетум, размер L</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>4730</v>
+        <v>5350</v>
       </c>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1358.jpg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1359.jpg</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/mono_rozy/buket-296.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-svyshe-5000/buket-358.html</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Дуо-букет из Lady Bombastic и танацетум, размер L</t>
+          <t>Букет 359</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>4875</v>
+        <v>4150</v>
       </c>
       <c r="C164" t="inlineStr"/>
       <c r="D164" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1359.jpg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1360.jpg</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-svyshe-5000/buket-358.html</t>
+          <t>https://gift2gift.ru/catalog/monobukety/buket-359.html</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Букет 359</t>
+          <t>Композиция 1319</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>4150</v>
+        <v>2330</v>
       </c>
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1360.jpg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1372.jpeg</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/monobukety/buket-359.html</t>
+          <t>https://gift2gift.ru/catalog/cvety_v_korobke/kompozitsiya-1319_1372.html</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Букет 1367</t>
+          <t>Композиция 1373</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>4610</v>
+        <v>2745</v>
       </c>
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1367.jpg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1373-s.jpeg</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/mono_rozy/buket-494.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/kompozitsiya_____________.html</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Композиция 1319</t>
+          <t>Букет 1374</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>2230</v>
+        <v>5370</v>
       </c>
       <c r="C167" t="inlineStr"/>
       <c r="D167" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1372.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1374.jpg</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/cvety_v_korobke/kompozitsiya-1319_1372.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-648.html</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Композиция 1373</t>
+          <t>Букет 670</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>2745</v>
+        <v>4500</v>
       </c>
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1373-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1376.jpg</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/kompozitsiya_____________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-670.html</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Букет 1374</t>
+          <t>Букет 671</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>4920</v>
+        <v>5625</v>
       </c>
       <c r="C169" t="inlineStr"/>
       <c r="D169" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1374.jpg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1377.jpg</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-648.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-671.html</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Букет 661</t>
+          <t>Букет 682</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>4715</v>
+        <v>6375</v>
       </c>
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1375.jpg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1379.jpg</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-661.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-682.html</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Букет 670</t>
+          <t>Букет 706</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>4600</v>
+        <v>2650</v>
       </c>
       <c r="C171" t="inlineStr"/>
       <c r="D171" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1376.jpg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1381.jpg</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-670.html</t>
+          <t>https://gift2gift.ru/catalog/monobukety/buket-706.html</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Букет 671</t>
+          <t>Букет 725</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>6025</v>
+        <v>5470</v>
       </c>
       <c r="C172" t="inlineStr"/>
       <c r="D172" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1377.jpg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1385.jpg</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-671.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-725.html</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Букет 682</t>
+          <t>Букет 735</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>6775</v>
+        <v>5200</v>
       </c>
       <c r="C173" t="inlineStr"/>
       <c r="D173" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1379.jpg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1390.jpeg</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-682.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-svyshe-5000/buket-735.html</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Букет 706</t>
+          <t>Букет 754</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>2650</v>
+        <v>4160</v>
       </c>
       <c r="C174" t="inlineStr"/>
       <c r="D174" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1381.jpg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1394.jpeg</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/monobukety/buket-706.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/buket-754.html</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Букет 713</t>
+          <t>Букет 830</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>4300</v>
+        <v>8100</v>
       </c>
       <c r="C175" t="inlineStr"/>
       <c r="D175" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1382.jpg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1399.jpeg</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/mono_rozy/buket-713.html</t>
+          <t>https://gift2gift.ru/catalog/monobukety/buket-830.html</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Букет 725</t>
+          <t>Букет 831</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>5530</v>
+        <v>3325</v>
       </c>
       <c r="C176" t="inlineStr"/>
       <c r="D176" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1385.jpg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1400.jpeg</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-725.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/buket-831.html</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Букет 727</t>
+          <t>Букет 857</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>3700</v>
+        <v>5900</v>
       </c>
       <c r="C177" t="inlineStr"/>
       <c r="D177" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1386.jpg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1401.jpeg</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-727.html</t>
+          <t>https://gift2gift.ru/catalog/mono_rozy/buket-857.html</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Букет 735</t>
+          <t>Букет 876</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>5500</v>
+        <v>4100</v>
       </c>
       <c r="C178" t="inlineStr"/>
       <c r="D178" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1390.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1413.jpeg</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-svyshe-5000/buket-735.html</t>
+          <t>https://gift2gift.ru/catalog/mono_rozy/buket-876.html</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Букет 751</t>
+          <t>Букет 877</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>6310</v>
+        <v>5329</v>
       </c>
       <c r="C179" t="inlineStr"/>
       <c r="D179" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1392.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1414.jpeg</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/mono_rozy/buket-751.html</t>
+          <t>https://gift2gift.ru/catalog/mono_rozy/buket-877_1414.html</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Букет 754</t>
+          <t>Букет 884</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>4270</v>
+        <v>3580</v>
       </c>
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1394.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1416.jpeg</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/buket-754.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/buket-884_1416.html</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Букет 827</t>
+          <t>Дуо-букет диантусы и розы Miss Bombastic, размер S</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>3870</v>
+        <v>3700</v>
       </c>
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1398.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1417.jpeg</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-827.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/buket-885_1417.html</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Букет 830</t>
+          <t>Букет из диантусов, размер М</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>8100</v>
+        <v>4300</v>
       </c>
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1399.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1418.jpeg</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/monobukety/buket-830.html</t>
+          <t>https://gift2gift.ru/catalog/monobukety/buket-886_1418.html</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Букет 831</t>
+          <t>Букет 903</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>3265</v>
+        <v>4690</v>
       </c>
       <c r="C183" t="inlineStr"/>
       <c r="D183" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1400.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1420.jpeg</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/buket-831.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-903.html</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Букет 857</t>
+          <t>Букет 911</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>5900</v>
+        <v>2450</v>
       </c>
       <c r="C184" t="inlineStr"/>
       <c r="D184" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1401.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1424.jpeg</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/mono_rozy/buket-857.html</t>
+          <t>https://gift2gift.ru/catalog/monobukety/buket-911_1424.html</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Букет 866</t>
+          <t>Дуо-букет из диантусов, размер М</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>6050</v>
+        <v>3550</v>
       </c>
       <c r="C185" t="inlineStr"/>
       <c r="D185" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1403.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1426.jpeg</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/mono_rozy/buket-866.html</t>
+          <t>https://gift2gift.ru/catalog/monobukety/buket-914_1426.html</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Букет 870</t>
+          <t>Букет 919</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>3490</v>
+        <v>3650</v>
       </c>
       <c r="C186" t="inlineStr"/>
       <c r="D186" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1409.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1427.jpeg</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/mono_rozy/buket-870.html</t>
+          <t>https://gift2gift.ru/catalog/mono_rozy/buket-919_1427.html</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Букет 875</t>
+          <t>Букет 921</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>4370</v>
+        <v>4950</v>
       </c>
       <c r="C187" t="inlineStr"/>
       <c r="D187" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1412.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1428.jpeg</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/mono_rozy/buket-875.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-921_1428.html</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Букет 876</t>
+          <t>Букет 926</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>4000</v>
+        <v>5300</v>
       </c>
       <c r="C188" t="inlineStr"/>
       <c r="D188" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1413.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1429.jpeg</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/mono_rozy/buket-876.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-svyshe-5000/buket-926.html</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Букет 877</t>
+          <t>Букет 935</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>5563</v>
+        <v>4250</v>
       </c>
       <c r="C189" t="inlineStr"/>
       <c r="D189" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1414.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1430.jpeg</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/mono_rozy/buket-877_1414.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-935_1430.html</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Букет 879</t>
+          <t>Букет 954</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>4200</v>
+        <v>4700</v>
       </c>
       <c r="C190" t="inlineStr"/>
       <c r="D190" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1415.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1435.jpeg</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/mono_rozy/buket-879_1415.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-954.html</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Букет 884</t>
+          <t>Букет роз Country Blues, размер S</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>3680</v>
+        <v>3425</v>
       </c>
       <c r="C191" t="inlineStr"/>
       <c r="D191" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1416.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1437-s.jpeg</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/buket-884_1416.html</t>
+          <t>https://gift2gift.ru/catalog/monobukety/buket-964.html</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Дуо-букет диантусы и розы Miss Bombastic, размер S</t>
+          <t>Букет 981</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="C192" t="inlineStr"/>
       <c r="D192" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1417.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1438.jpeg</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/buket-885_1417.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/buket-981_1438.html</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Букет из диантусов, размер М</t>
+          <t>Букет 990</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>4400</v>
+        <v>4150</v>
       </c>
       <c r="C193" t="inlineStr"/>
       <c r="D193" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1418.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1439.jpeg</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/monobukety/buket-886_1418.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-990_1439.html</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Букет 903</t>
+          <t>Букет 992</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>4790</v>
+        <v>4550</v>
       </c>
       <c r="C194" t="inlineStr"/>
       <c r="D194" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1420.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1441.jpeg</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-903.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-992_1441.html</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Букет 911</t>
+          <t>Букет 1447</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>2700</v>
+        <v>3880</v>
       </c>
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1424.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1449.jpeg</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/monobukety/buket-911_1424.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket-1447_1449.html</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Дуо-букет из диантусов, размер М</t>
+          <t>Букет 1450</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>3650</v>
+        <v>2900</v>
       </c>
       <c r="C196" t="inlineStr"/>
       <c r="D196" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1426.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1450-s.jpeg</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/monobukety/buket-914_1426.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket__________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Букет 919</t>
+          <t>Композиция 1451</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>3540</v>
+        <v>2075</v>
       </c>
       <c r="C197" t="inlineStr"/>
       <c r="D197" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1427.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1451-s.jpeg</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/mono_rozy/buket-919_1427.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/kompozitsiya______________.html</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Букет 921</t>
+          <t>Букет 1463</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>5010</v>
+        <v>2800</v>
       </c>
       <c r="C198" t="inlineStr"/>
       <c r="D198" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1428.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1463-s.jpeg</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-921_1428.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/____________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Букет 926</t>
+          <t>Букет 1465</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>5300</v>
+        <v>3600</v>
       </c>
       <c r="C199" t="inlineStr"/>
       <c r="D199" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1429.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1465-s.jpeg</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-svyshe-5000/buket-926.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/______________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Букет 935</t>
+          <t>Букет 1468</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>4240</v>
+        <v>2650</v>
       </c>
       <c r="C200" t="inlineStr"/>
       <c r="D200" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1430.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1468-s.jpeg</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-935_1430.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/_________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Букет 954</t>
+          <t>Букет 1469</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>4550</v>
+        <v>2350</v>
       </c>
       <c r="C201" t="inlineStr"/>
       <c r="D201" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1435.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1469-s.jpeg</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-954.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/__________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Букет роз Country Blues, размер S</t>
+          <t>Букет 1471</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>3490</v>
+        <v>6450</v>
       </c>
       <c r="C202" t="inlineStr"/>
       <c r="D202" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1437-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1471-s.jpeg</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/monobukety/buket-964.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/____________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Букет 981</t>
+          <t>Букет 1473</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>3200</v>
+        <v>4240</v>
       </c>
       <c r="C203" t="inlineStr"/>
       <c r="D203" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1438.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1473-s.jpeg</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/buket-981_1438.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket___________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Букет 990</t>
+          <t>Букет 1474</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>4230</v>
+        <v>4650</v>
       </c>
       <c r="C204" t="inlineStr"/>
       <c r="D204" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1439.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1474-s.jpeg</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-990_1439.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket____________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Букет 992</t>
+          <t>Букет 989</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>4650</v>
+        <v>4600</v>
       </c>
       <c r="C205" t="inlineStr"/>
       <c r="D205" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1441.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1475.jpeg</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket-992_1441.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket-989_1475.html</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Букет 1447</t>
+          <t>Букет 1105</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>3680</v>
+        <v>2550</v>
       </c>
       <c r="C206" t="inlineStr"/>
       <c r="D206" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1449.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/s_1477.jpeg</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket-1447_1449.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket-1105.html</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Букет 1450</t>
+          <t>Букет 1494</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>2550</v>
+        <v>3890</v>
       </c>
       <c r="C207" t="inlineStr"/>
       <c r="D207" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1450-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1494-s.jpeg</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket__________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Композиция 1451</t>
+          <t>Букет 1496</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>2170</v>
+        <v>4125</v>
       </c>
       <c r="C208" t="inlineStr"/>
       <c r="D208" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1451-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1496-s.jpeg</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/kompozitsiya______________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket_________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Букет 1463</t>
+          <t>Букет 1497</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>2900</v>
+        <v>3600</v>
       </c>
       <c r="C209" t="inlineStr"/>
       <c r="D209" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1463-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1497-s.jpeg</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/____________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket__________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Букет 1465</t>
+          <t>Луковичная композиция 1499</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>3600</v>
+        <v>3270</v>
       </c>
       <c r="C210" t="inlineStr"/>
       <c r="D210" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1465-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1499-s.jpeg</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/______________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/lukovichnaya-kompozitsiya.html</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Букет 1468</t>
+          <t>Букет из гортензий, размер S</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>2575</v>
+        <v>1900</v>
       </c>
       <c r="C211" t="inlineStr"/>
       <c r="D211" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1468-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1504-s.jpeg</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/_________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/monobukety/buket____________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Букет 1469</t>
+          <t>Букет 1517</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>2350</v>
+        <v>4750</v>
       </c>
       <c r="C212" t="inlineStr"/>
       <c r="D212" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1469-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1517-s.jpeg</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/__________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/buket________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Букет 1471</t>
+          <t>Букет 1519</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>6450</v>
+        <v>4530</v>
       </c>
       <c r="C213" t="inlineStr"/>
       <c r="D213" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1471-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1519-s.jpeg</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/____________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/__________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Букет 1473</t>
+          <t>Букет 1520</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>4240</v>
+        <v>4730</v>
       </c>
       <c r="C214" t="inlineStr"/>
       <c r="D214" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1473-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1520-s.jpeg</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket___________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/buket_________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Букет 1474</t>
+          <t>Букет 1521</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>4650</v>
+        <v>4150</v>
       </c>
       <c r="C215" t="inlineStr"/>
       <c r="D215" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1474-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1521-s.jpeg</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket____________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket__________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Букет 989</t>
+          <t>Букет 1522</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>4700</v>
+        <v>4070</v>
       </c>
       <c r="C216" t="inlineStr"/>
       <c r="D216" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1475.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1522-s.jpeg</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket-989_1475.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket___________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Букет 1105</t>
+          <t>Букет 1523</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>2650</v>
+        <v>4250</v>
       </c>
       <c r="C217" t="inlineStr"/>
       <c r="D217" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/s_1477.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1523-s.jpeg</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket-1105.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/bukt.html</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Букет 1494</t>
+          <t>Композиция 1529</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>3450</v>
+        <v>3955</v>
       </c>
       <c r="C218" t="inlineStr"/>
       <c r="D218" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1494-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1529-s.jpeg</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/kompozitsiya________________.html</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Букет 1496</t>
+          <t>Композиция 1530</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>4185</v>
+        <v>3270</v>
       </c>
       <c r="C219" t="inlineStr"/>
       <c r="D219" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1496-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1530-s.jpeg</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket_________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/kompozitsiya_________________.html</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Букет 1497</t>
+          <t>Букет 1533</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>3490</v>
+        <v>3850</v>
       </c>
       <c r="C220" t="inlineStr"/>
       <c r="D220" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1497-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1533-s.jpeg</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket__________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket______________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Луковичная композиция 1499</t>
+          <t>Букет 1542</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>3270</v>
+        <v>2650</v>
       </c>
       <c r="C221" t="inlineStr"/>
       <c r="D221" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1499-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1542-s.jpeg</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/lukovichnaya-kompozitsiya.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket_________.html</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Букет из гортензий, размер S</t>
+          <t>Букет 1543</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>2100</v>
+        <v>3010</v>
       </c>
       <c r="C222" t="inlineStr"/>
       <c r="D222" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1504-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1543-s.jpeg</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/monobukety/buket____________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket_________________.html</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Букет 1517</t>
+          <t>Букет 1544</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>4750</v>
+        <v>2620</v>
       </c>
       <c r="C223" t="inlineStr"/>
       <c r="D223" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1517-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1544-s.jpeg</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/buket________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket_________________________.html</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Букет 1519</t>
+          <t>Букет 1547</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>3810</v>
+        <v>2700</v>
       </c>
       <c r="C224" t="inlineStr"/>
       <c r="D224" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1519-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1547-s.jpeg</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/__________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/buket____________________________.html</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Букет 1520</t>
+          <t>Букет 1548</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>4730</v>
+        <v>4850</v>
       </c>
       <c r="C225" t="inlineStr"/>
       <c r="D225" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1520-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1548-s.jpeg</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/buket_________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/buket____________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Букет 1521</t>
+          <t>Букет 1573</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>4300</v>
+        <v>3110</v>
       </c>
       <c r="C226" t="inlineStr"/>
       <c r="D226" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1521-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1573-s.jpeg</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket__________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/_________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Букет 1522</t>
+          <t>Букет из кустовых роз Miss Bombastic, размер S</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>3790</v>
+        <v>3400</v>
       </c>
       <c r="C227" t="inlineStr"/>
       <c r="D227" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1522-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1596-s.jpeg</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/buket___________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/monobukety/________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Букет 1523</t>
+          <t>Букет из роз Pink Mondial, размер S</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>4250</v>
+        <v>2550</v>
       </c>
       <c r="C228" t="inlineStr"/>
       <c r="D228" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1523-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1597-s.jpeg</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/bukt.html</t>
+          <t>https://gift2gift.ru/catalog/monobukety/_________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Композиция 1529</t>
+          <t>Букет 1599</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>3235</v>
+        <v>3600</v>
       </c>
       <c r="C229" t="inlineStr"/>
       <c r="D229" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1529-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1599-s.jpeg</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/kompozitsiya________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Композиция 1530</t>
+          <t>Букет из диантусов, размер S</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>2990</v>
+        <v>2650</v>
       </c>
       <c r="C230" t="inlineStr"/>
       <c r="D230" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1530-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1608-s.jpeg</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/kompozitsiya_________________.html</t>
+          <t>https://gift2gift.ru/catalog/monobukety/buket-iz-diantusov-razmer-s.html</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Букет 1533</t>
+          <t>Букет 1610</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>3690</v>
+        <v>2600</v>
       </c>
       <c r="C231" t="inlineStr"/>
       <c r="D231" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1533-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1610-s.jpeg</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket______________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket__________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Букет 1542</t>
+          <t>Моно-букет из диантусов, размер S</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>2575</v>
+        <v>2650</v>
       </c>
       <c r="C232" t="inlineStr"/>
       <c r="D232" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1542-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1625-s.jpeg</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket_________.html</t>
+          <t>https://gift2gift.ru/catalog/monobukety/________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Букет 1543</t>
+          <t>Дуо-букет кустовых роз miss bombastic и танацетума, размер S</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>3500</v>
+        <v>3700</v>
       </c>
       <c r="C233" t="inlineStr"/>
       <c r="D233" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1543-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1630-s.jpeg</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket_________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/____________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Букет 1544</t>
+          <t>Дуо-букет из роз Miss Bombastic и танацетума, размер M</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>2550</v>
+        <v>5050</v>
       </c>
       <c r="C234" t="inlineStr"/>
       <c r="D234" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1544-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1631-s.jpeg</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket_________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/duo-buket-iz-kustovykh-roz-miss-bombastic-i-tanatsetuma-razmer-m.html</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Букет 1547</t>
+          <t>Дуо-букет из кустовых роз Madam Bombastic и гортензии, размер S</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>2600</v>
+        <v>3700</v>
       </c>
       <c r="C235" t="inlineStr"/>
       <c r="D235" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1547-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1634-s.jpeg</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/buket____________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/duo-buket-iz-kustovykh-roz-madam-bombastic-i-gortenzii-razmer-s.html</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Букет 1548</t>
+          <t>Дуо-букет из кустовых роз Madam Bombastic и гортензии, размер M</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>4810</v>
+        <v>4900</v>
       </c>
       <c r="C236" t="inlineStr"/>
       <c r="D236" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1548-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1635-s.jpeg</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/buket____________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/duo-buket-iz-kustovykh-roz-madam-bombastic-i-gortenzii-razmer-m.html</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Букет 1573</t>
+          <t>Дуо-букет из кустовых роз Miss Bombastic и гортензии, размер S</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>3110</v>
+        <v>3150</v>
       </c>
       <c r="C237" t="inlineStr"/>
       <c r="D237" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1573-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1636-s.jpeg</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/_________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/______________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Букет из кустовых роз Miss Bombastic, размер M</t>
+          <t>Дуо-букет из кустовых роз Miss Bombastic и гортензии, размер M</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>4250</v>
+        <v>4900</v>
       </c>
       <c r="C238" t="inlineStr"/>
       <c r="D238" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1594-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1637-s.jpeg</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/monobukety/buket______________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/_______________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Букет из кустовых роз Miss Bombastic, размер S</t>
+          <t>Моно-букет из альстромерии, размер S</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>3150</v>
+        <v>2650</v>
       </c>
       <c r="C239" t="inlineStr"/>
       <c r="D239" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1596-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1638-s.jpeg</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/monobukety/________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/mono-buket-iz-alstromerii-razmer-s.html</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Букет из роз Pink Mondial, размер S</t>
+          <t>Моно-букет из альстромерии, размер М</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>2400</v>
+        <v>3650</v>
       </c>
       <c r="C240" t="inlineStr"/>
       <c r="D240" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1597-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1639-s.jpeg</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/monobukety/_________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/mono-buket-iz-alstromerii-razmer-m.html</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Букет 1599</t>
+          <t>Букет из диантусов, размер S</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>3870</v>
+        <v>2750</v>
       </c>
       <c r="C241" t="inlineStr"/>
       <c r="D241" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1599-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1642-s.jpeg</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/monobukety/buket-iz-diantusov-razmer-s_.html</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Букет 1600</t>
+          <t>Моно-букет из роз Candle Light, размер S</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>3150</v>
+        <v>2800</v>
       </c>
       <c r="C242" t="inlineStr"/>
       <c r="D242" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1600-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1643-s.jpeg</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/monobukety/buket_________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/mono_rozy/_________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Букет из диантусов, размер S</t>
+          <t>Моно букет из роз Mondial, размера S</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>2650</v>
+        <v>2150</v>
       </c>
       <c r="C243" t="inlineStr"/>
       <c r="D243" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1608-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1650-s.jpeg</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/monobukety/buket-iz-diantusov-razmer-s.html</t>
+          <t>https://gift2gift.ru/catalog/monobukety/__________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Букет 1610</t>
+          <t>Букет 1656</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>2630</v>
+        <v>2450</v>
       </c>
       <c r="C244" t="inlineStr"/>
       <c r="D244" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1610-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1656-s.jpeg</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket__________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/buket_____________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Моно-букет из диантусов, размер S</t>
+          <t>Дуо-букет из Pink Mondial и кустовых роз, размер S</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>2650</v>
+        <v>3350</v>
       </c>
       <c r="C245" t="inlineStr"/>
       <c r="D245" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1625-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1664-s.jpeg</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/monobukety/________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/duo-buket-iz-pink-mondial-i-kustovykh-roz-razmer-s.html</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Дуо-букет кустовых роз miss bombastic и танацетума, размер S</t>
+          <t>Дуо-букет из Pink Mondial и кустовых роз, размер М</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>3400</v>
+        <v>4650</v>
       </c>
       <c r="C246" t="inlineStr"/>
       <c r="D246" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1630-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1665-s.jpeg</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/____________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/duo-buket-iz-pink-mondial-i-kustovykh-roz-razmer-m.html</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Дуо-букет из роз Miss Bombastic и танацетума, размер M</t>
+          <t>Дуо-букет из диантусов и альстромерии, размер S</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>4625</v>
+        <v>2800</v>
       </c>
       <c r="C247" t="inlineStr"/>
       <c r="D247" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1631-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1666-s.jpeg</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/duo-buket-iz-kustovykh-roz-miss-bombastic-i-tanatsetuma-razmer-m.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/____________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Дуо-букет из кустовых роз Madam Bombastic и гортензии, размер S</t>
+          <t>Дуо-букет из диантусов и альстромерии, размер M</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>3650</v>
+        <v>3950</v>
       </c>
       <c r="C248" t="inlineStr"/>
       <c r="D248" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1634-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1667-s.jpeg</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/duo-buket-iz-kustovykh-roz-madam-bombastic-i-gortenzii-razmer-s.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/_____________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Дуо-букет из кустовых роз Madam Bombastic и гортензии, размер M</t>
+          <t>Дуо-букет из Pink Mondial и кустовых роз, размер S</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>4750</v>
+        <v>3350</v>
       </c>
       <c r="C249" t="inlineStr"/>
       <c r="D249" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1635-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1668-s.jpeg</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/duo-buket-iz-kustovykh-roz-madam-bombastic-i-gortenzii-razmer-m.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/______________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Дуо-букет из кустовых роз Miss Bombastic и гортензии, размер S</t>
+          <t>Дуо-букет из Pink Mondial и кустовых роз, размер M</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>3650</v>
+        <v>4650</v>
       </c>
       <c r="C250" t="inlineStr"/>
       <c r="D250" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1636-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1669-s.jpeg</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/______________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/_______________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Дуо-букет из кустовых роз Miss Bombastic и гортензии, размер M</t>
+          <t>Дуо-букет из кустовых роз и диантусов, размер S</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>4750</v>
+        <v>2950</v>
       </c>
       <c r="C251" t="inlineStr"/>
       <c r="D251" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1637-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1670-s.jpeg</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/_______________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Моно-букет из альстромерии, размер S</t>
+          <t>Дуо-букет из кустовых роз и диантусов, размер M</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>2650</v>
+        <v>4750</v>
       </c>
       <c r="C252" t="inlineStr"/>
       <c r="D252" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1638-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1671-s.jpeg</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/mono-buket-iz-alstromerii-razmer-s.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/_________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Моно-букет из альстромерии, размер М</t>
+          <t>Дуо-букет из кустовых роз и альстромерии, размер S</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>3650</v>
+        <v>3200</v>
       </c>
       <c r="C253" t="inlineStr"/>
       <c r="D253" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1639-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1672-s.jpeg</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/mono-buket-iz-alstromerii-razmer-m.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/__________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Букет из роз Candle light, размер S</t>
+          <t>Дуо-букет из кустовых роз и альстромерии, размер M</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>2750</v>
+        <v>4900</v>
       </c>
       <c r="C254" t="inlineStr"/>
       <c r="D254" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1641-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1673-s.jpeg</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/monobukety/________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/___________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Букет из диантусов, размер S</t>
+          <t>Дуо-букет из кустовых роз и альстромерии, размер S</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>2850</v>
+        <v>3200</v>
       </c>
       <c r="C255" t="inlineStr"/>
       <c r="D255" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1642-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1674-s.jpeg</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/monobukety/buket-iz-diantusov-razmer-s_.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/____________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Моно-букет из роз Candle Light, размер S</t>
+          <t>Дуо-букет из кустовых роз и альстромерии, размер M</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>2750</v>
+        <v>5250</v>
       </c>
       <c r="C256" t="inlineStr"/>
       <c r="D256" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1643-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1675-s.jpeg</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/mono_rozy/_________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/duo-buket-iz-kustovykh-roz-i-alstromerii-razmer-m.html</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Моно букет из роз Mondial, размера S</t>
+          <t>Дуо-букет из диантусов и танацетума, размер S</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -5827,859 +5827,859 @@
       <c r="C257" t="inlineStr"/>
       <c r="D257" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1650-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1676-s.jpeg</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/monobukety/__________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/_____________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Букет 1656</t>
+          <t>Дуо-букет из диантусов и танацетума, размер M</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>2450</v>
+        <v>2950</v>
       </c>
       <c r="C258" t="inlineStr"/>
       <c r="D258" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1656-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1677-s.jpeg</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/buket_____________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/duo-buket-iz-diantusov-i-tanatsetuma-razmer-m.html</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Дуо-букет из Pink Mondial и кустовых роз, размер S</t>
+          <t>Дуо-букет из кустовых роз и диантусов, размера M</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>3000</v>
+        <v>4700</v>
       </c>
       <c r="C259" t="inlineStr"/>
       <c r="D259" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1664-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1704-s.jpeg</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/duo-buket-iz-pink-mondial-i-kustovykh-roz-razmer-s.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/___________________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Дуо-букет из Pink Mondial и кустовых роз, размер М</t>
+          <t>Дуо-букет из хризантем и диантусов, размер S</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>4150</v>
+        <v>2750</v>
       </c>
       <c r="C260" t="inlineStr"/>
       <c r="D260" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1665-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1705-s.jpeg</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/duo-buket-iz-pink-mondial-i-kustovykh-roz-razmer-m.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/____________________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Дуо-букет из диантусов и альстромерии, размер S</t>
+          <t>Дуо-букет из хризантем и диантусов, размер M</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>2800</v>
+        <v>3900</v>
       </c>
       <c r="C261" t="inlineStr"/>
       <c r="D261" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1666-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1706-s.jpeg</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/____________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/duo-buket-iz-khrizantem-i-diantusov-razmer-m.html</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Дуо-букет из диантусов и альстромерии, размер M</t>
+          <t>Дуо-букет из роз Mondial и кустовых роз, размера S</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>3950</v>
+        <v>3850</v>
       </c>
       <c r="C262" t="inlineStr"/>
       <c r="D262" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1667-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1707-s.jpeg</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/_____________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/mono_rozy/_____________________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Дуо-букет из Pink Mondial и кустовых роз, размер S</t>
+          <t>Дуо-букет из роз Mondial и кустовых роз, размера M</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>3000</v>
+        <v>4600</v>
       </c>
       <c r="C263" t="inlineStr"/>
       <c r="D263" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1668-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1708-s.jpeg</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/______________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/mono_rozy/duo-buket-iz-roz-mondial-i-kustovykh-roz-razmera-m.html</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Дуо-букет из Pink Mondial и кустовых роз, размер M</t>
+          <t>Дуо-букет из хризантем и альстромерии, размер S</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>4150</v>
+        <v>2850</v>
       </c>
       <c r="C264" t="inlineStr"/>
       <c r="D264" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1669-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1709-s.jpeg</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/_______________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/duo-buket-iz-khrizantem-i-alstromerii-razmer-s.html</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Дуо-букет из кустовых роз и диантусов, размер S</t>
+          <t>Дуо-букет из хризантем и альстромерии, размер M</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>2850</v>
+        <v>4200</v>
       </c>
       <c r="C265" t="inlineStr"/>
       <c r="D265" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1670-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1710-s.jpeg</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/duo-buket-iz-khrizantem-i-alstromerii-razmer-m.html</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Дуо-букет из кустовых роз и диантусов, размер M</t>
+          <t>Флористический кензан</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>4550</v>
+        <v>1200</v>
       </c>
       <c r="C266" t="inlineStr"/>
       <c r="D266" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1671-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1711-s.jpeg</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/_________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/kenzan/floristicheskii-kenzan.html</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Дуо-букет из кустовых роз и альстромерии, размер S</t>
+          <t>Ваза-чаша для кензана</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>3050</v>
+        <v>300</v>
       </c>
       <c r="C267" t="inlineStr"/>
       <c r="D267" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1672-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1712-s.jpeg</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/__________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/kenzan/vaza-chasha-dlya-kenzana.html</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Дуо-букет из кустовых роз и альстромерии, размер M</t>
+          <t>Дуо-букет из роз Candlelight и кустовых роз, размер М</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>4650</v>
+        <v>4600</v>
       </c>
       <c r="C268" t="inlineStr"/>
       <c r="D268" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1673-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1713-s.jpeg</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/___________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/mono_rozy/duo-buket-iz-roz-candlelight-i-kustovykh-roz-razmer-s.html</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Дуо-букет из кустовых роз и альстромерии, размер S</t>
+          <t>Дуо-букет из хризантем и кустовых диантусов, размер M</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>3050</v>
+        <v>3950</v>
       </c>
       <c r="C269" t="inlineStr"/>
       <c r="D269" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1674-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1714-s.jpeg</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/____________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/______________________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Дуо-букет из кустовых роз и альстромерии, размер M</t>
+          <t>Дуо-букет из хризантем и кустовых диантусов, размер S</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>4650</v>
+        <v>2500</v>
       </c>
       <c r="C270" t="inlineStr"/>
       <c r="D270" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1675-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1715-s.jpeg</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/duo-buket-iz-kustovykh-roz-i-alstromerii-razmer-m.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/duo-buket-iz-khrizantem-i-kustovykh-diantusov-razmer-s.html</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Дуо-букет из диантусов и танацетума, размер S</t>
+          <t>Дуо-букет из роз Candlelight и кустовых роз, размера S</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>2125</v>
+        <v>3200</v>
       </c>
       <c r="C271" t="inlineStr"/>
       <c r="D271" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1676-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1716-s.jpeg</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/_____________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/mono_rozy/duo-buket-iz-roz-mondial-i-kustovykh-roz-razmera-s.html</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Дуо-букет из диантусов и танацетума, размер M</t>
+          <t>Дуо-букет из роз Candlelight и кустовых роз, размера L</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>2850</v>
+        <v>6050</v>
       </c>
       <c r="C272" t="inlineStr"/>
       <c r="D272" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1677-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1717-s.jpeg</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/duo-buket-iz-diantusov-i-tanatsetuma-razmer-m.html</t>
+          <t>https://gift2gift.ru/catalog/mono_rozy/duo-buket-iz-roz-candlelight-i-kustovykh-roz-razmera-l.html</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Дуо-букет из кустовых роз и диантусов, размера M</t>
+          <t>Дуо-букет из роз Mondial и альстромерии, размера S</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>4550</v>
+        <v>2450</v>
       </c>
       <c r="C273" t="inlineStr"/>
       <c r="D273" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1704-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1720-s.jpeg</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/___________________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/_________________________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Дуо-букет из хризантем и диантусов, размер S</t>
+          <t>Дуо-букет из роз Mondial и альстромерии, размера M</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>2400</v>
+        <v>3650</v>
       </c>
       <c r="C274" t="inlineStr"/>
       <c r="D274" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1705-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1721-s.jpeg</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/____________________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/__________________________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Дуо-букет из хризантем и диантусов, размер M</t>
+          <t>Дуо-букет из кустовых роз и хризантемы, размера S</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>3250</v>
+        <v>3800</v>
       </c>
       <c r="C275" t="inlineStr"/>
       <c r="D275" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1706-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1722-s.jpeg</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/duo-buket-iz-khrizantem-i-diantusov-razmer-m.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/___________________________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Дуо-букет из роз Mondial и кустовых роз, размера S</t>
+          <t>Дуо-букет из кустовых роз и хризантемы, размера M</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>3680</v>
+        <v>5250</v>
       </c>
       <c r="C276" t="inlineStr"/>
       <c r="D276" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1707-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1723-s.jpeg</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/mono_rozy/_____________________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/duo-buket-iz-kustovykh-roz-i-khrizantemy-razmera-m.html</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Дуо-букет из роз Mondial и кустовых роз, размера M</t>
+          <t>Букет из розы Red Naomi,размер S</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>4450</v>
+        <v>1990</v>
       </c>
       <c r="C277" t="inlineStr"/>
       <c r="D277" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1708-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1737-s.jpeg</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/mono_rozy/duo-buket-iz-roz-mondial-i-kustovykh-roz-razmera-m.html</t>
+          <t>https://gift2gift.ru/catalog/mono_rozy/______________________________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Дуо-букет из хризантем и альстромерии, размер S</t>
+          <t>Букет из розы Red Naomi,размер M</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>2400</v>
+        <v>3410</v>
       </c>
       <c r="C278" t="inlineStr"/>
       <c r="D278" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1709-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1738-s.jpeg</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/duo-buket-iz-khrizantem-i-alstromerii-razmer-s.html</t>
+          <t>https://gift2gift.ru/catalog/mono_rozy/buket-iz-rozy-red-naomi-razmer-m.html</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Дуо-букет из хризантем и альстромерии, размер M</t>
+          <t>Дуо-букет из диантусов и кустовых диантусов, размер S</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>3450</v>
+        <v>2650</v>
       </c>
       <c r="C279" t="inlineStr"/>
       <c r="D279" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1710-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1739-s.jpeg</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/duo-buket-iz-khrizantem-i-alstromerii-razmer-m.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/_______________________________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Флористический кензан</t>
+          <t>Дуо-букет из диантусов и кустовых диантусов, размер M</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>1200</v>
+        <v>3700</v>
       </c>
       <c r="C280" t="inlineStr"/>
       <c r="D280" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1711-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1740-s.jpeg</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/kenzan/floristicheskii-kenzan.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/duo-buket-iz-diantusov-i-kustovykh-diantusov-razmer-m.html</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Ваза-чаша для кензана</t>
+          <t>Дуо-букет из роз Mondial и диантусов, размера S</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>300</v>
+        <v>3300</v>
       </c>
       <c r="C281" t="inlineStr"/>
       <c r="D281" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1712-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1741-s.jpeg</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/kenzan/vaza-chasha-dlya-kenzana.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/________________________________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Дуо-букет из роз Candlelight и кустовых роз, размер М</t>
+          <t>Дуо-букет из роз Mondial и диантусов, размера M</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>4400</v>
+        <v>4450</v>
       </c>
       <c r="C282" t="inlineStr"/>
       <c r="D282" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1713-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1742-s.jpeg</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/mono_rozy/duo-buket-iz-roz-candlelight-i-kustovykh-roz-razmer-s.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/_________________________________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Дуо-букет из хризантем и кустовых диантусов, размер M</t>
+          <t>Дуо-букет из кустовых роз Miss Bombastic и хризантемы, размер S</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>3200</v>
+        <v>3800</v>
       </c>
       <c r="C283" t="inlineStr"/>
       <c r="D283" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1714-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1743-s.jpeg</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/______________________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/__________________________________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Дуо-букет из хризантем и кустовых диантусов, размер S</t>
+          <t>Дуо-букет из кустовых роз Miss Bombastic и хризантемы, размер M</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>2050</v>
+        <v>5200</v>
       </c>
       <c r="C284" t="inlineStr"/>
       <c r="D284" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1715-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1744-s.jpeg</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/duo-buket-iz-khrizantem-i-kustovykh-diantusov-razmer-s.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/duo-buket-iz-kustovykh-roz-miss-bombastic-i-khrizantemy-razmer-m.html</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Дуо-букет из роз Candlelight и кустовых роз, размера S</t>
+          <t>Моно-букет из роз Mandarin, размер S</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>3110</v>
+        <v>3200</v>
       </c>
       <c r="C285" t="inlineStr"/>
       <c r="D285" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1716-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1756-s.jpeg</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/mono_rozy/duo-buket-iz-roz-mondial-i-kustovykh-roz-razmera-s.html</t>
+          <t>https://gift2gift.ru/catalog/mono_rozy/mono-buket-iz-roz-mandarin-razmer-s.html</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Дуо-букет из роз Candlelight и кустовых роз, размера L</t>
+          <t>Дуо-букет из роз Mandarin и диантусов, размер S</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>5740</v>
+        <v>3500</v>
       </c>
       <c r="C286" t="inlineStr"/>
       <c r="D286" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1717-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1757-s.jpeg</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/mono_rozy/duo-buket-iz-roz-candlelight-i-kustovykh-roz-razmera-l.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/duo-buket-iz-roz-mandarin-i-diantusov-razmer-s.html</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Дуо-букет из роз Mondial и альстромерии, размера S</t>
+          <t>Дуо-букет из роз Mandarin и диантусов, размер M</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>2480</v>
+        <v>4600</v>
       </c>
       <c r="C287" t="inlineStr"/>
       <c r="D287" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1720-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1758-s.jpeg</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/_________________________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/duo-buket-iz-roz-mandarin-i-diantusov-razmer-m.html</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Дуо-букет из роз Mondial и альстромерии, размера M</t>
+          <t>Дуо-букет из роз Mandarin и кустовых роз, размер S</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="C288" t="inlineStr"/>
       <c r="D288" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1721-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1759-s.jpeg</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/__________________________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/mono_rozy/duo-buket-iz-roz-mandarin-i-kustovykh-roz-razmer-s.html</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Дуо-букет из кустовых роз и хризантемы, размера S</t>
+          <t>Букет роз Country Blues, размер M</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>3300</v>
+        <v>5375</v>
       </c>
       <c r="C289" t="inlineStr"/>
       <c r="D289" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1722-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1760-s.jpeg</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/___________________________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/mono_rozy/buket-roz-country-blues-razmer-m.html</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Дуо-букет из кустовых роз и хризантемы, размера M</t>
+          <t>Дуо-букет из альстромерии и диантусов, размер S</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>4400</v>
+        <v>2800</v>
       </c>
       <c r="C290" t="inlineStr"/>
       <c r="D290" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1723-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1761-s.jpeg</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/duo-buket-iz-kustovykh-roz-i-khrizantemy-razmera-m.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/duo-buket-iz-alstromerii-i-diantusov-razdel-s.html</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Букет из розы Red Naomi,размер S</t>
+          <t>Дуо-букет из альстромерии и диантусов, размер M</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>2650</v>
+        <v>3950</v>
       </c>
       <c r="C291" t="inlineStr"/>
       <c r="D291" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1737-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1762-s.jpeg</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/mono_rozy/______________________________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/duo-buket-iz-alstromerii-i-diantusov-razmer-m.html</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Букет из розы Red Naomi,размер M</t>
+          <t>Дуо-букет из гортензии и диантусов, размер S</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>4550</v>
+        <v>2700</v>
       </c>
       <c r="C292" t="inlineStr"/>
       <c r="D292" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1738-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1763-s.jpeg</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/mono_rozy/buket-iz-rozy-red-naomi-razmer-m.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/duo-buket-iz-gortenzii-i-diantusov-razmer-s.html</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Дуо-букет из диантусов и кустовых диантусов, размер S</t>
+          <t>Дуо-букет из гортензии и диантусов, размер M</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>2650</v>
+        <v>3650</v>
       </c>
       <c r="C293" t="inlineStr"/>
       <c r="D293" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1739-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1764-s.jpeg</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/_______________________________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/duo-buket-iz-gortenzii-i-diantusov-razmer-m.html</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Дуо-букет из диантусов и кустовых диантусов, размер M</t>
+          <t>Дуо-букет из диантусов и танацетума,размер S</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>3700</v>
+        <v>2200</v>
       </c>
       <c r="C294" t="inlineStr"/>
       <c r="D294" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1740-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1765-s.jpeg</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/duo-buket-iz-diantusov-i-kustovykh-diantusov-razmer-m.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/duo-buket-iz-diantusov-i-tanatsetuma-razmer-s.html</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Дуо-букет из роз Mondial и диантусов, размера S</t>
+          <t>Дуо-букет из диантусов и танацетума,размер S</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>3450</v>
+        <v>2200</v>
       </c>
       <c r="C295" t="inlineStr"/>
       <c r="D295" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1741-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1766-s.jpeg</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/________________________________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/duo-buket-iz-diantusov-i-tanatsetuma-razmer-s_.html</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Дуо-букет из роз Mondial и диантусов, размера M</t>
+          <t>Композиция 1767</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>4620</v>
+        <v>2360</v>
       </c>
       <c r="C296" t="inlineStr"/>
       <c r="D296" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1742-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1767-s.jpeg</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/_________________________________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/kompozitsiya____________________________.html</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Дуо-букет из кустовых роз Miss Bombastic и хризантемы, размер S</t>
+          <t>Дуо-букет из гортензии и кустовых роз, размер S</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>3300</v>
+        <v>3150</v>
       </c>
       <c r="C297" t="inlineStr"/>
       <c r="D297" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1743-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1797-s.jpeg</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/__________________________________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/duo-buket-iz-gortenzii-i-kustovykh-roz-razmer-s.html</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Дуо-букет из кустовых роз Miss Bombastic и хризантемы, размер M</t>
+          <t>Дуо-букет из гортензии и кустовых роз, размер M</t>
         </is>
       </c>
       <c r="B298" t="n">
@@ -6688,355 +6688,351 @@
       <c r="C298" t="inlineStr"/>
       <c r="D298" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1744-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1798-s.jpeg</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/duo-buket-iz-kustovykh-roz-miss-bombastic-i-khrizantemy-razmer-m.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/duo-buket-iz-gortenzii-i-kustovykh-roz-razmer-m.html</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Моно-букет из роз Mandarin, размер S</t>
+          <t>Дуо-букет из гортензии и танацетума, размер S</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>2990</v>
+        <v>1800</v>
       </c>
       <c r="C299" t="inlineStr"/>
       <c r="D299" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1756-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1799-s.jpeg</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/mono_rozy/mono-buket-iz-roz-mandarin-razmer-s.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/duo-buket-iz-gortenzii-i-tanatsetuma-razmer-s.html</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Дуо-букет из роз Mandarin и диантусов, размер S</t>
+          <t>Дуо-букет из гортензии и танацетума, размер М</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>3510</v>
+        <v>2500</v>
       </c>
       <c r="C300" t="inlineStr"/>
       <c r="D300" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1757-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1800-s.jpeg</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/duo-buket-iz-roz-mandarin-i-diantusov-razmer-s.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/____________________________________________________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Дуо-букет из роз Mandarin и диантусов, размер M</t>
+          <t>Моно-букет из кустовой розы Lady Bombastic, размер M</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>4550</v>
+        <v>5050</v>
       </c>
       <c r="C301" t="inlineStr"/>
       <c r="D301" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1758-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1806-s.jpeg</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/duo-buket-iz-roz-mandarin-i-diantusov-razmer-m.html</t>
+          <t>https://gift2gift.ru/catalog/mono_rozy/mono-buket-iz-kustovoi-rozy-lady-bombastic-razmer-m.html</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Дуо-букет из роз Mandarin и кустовых роз, размер S</t>
+          <t>Букет из гортензий, размер S</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>3660</v>
+        <v>1900</v>
       </c>
       <c r="C302" t="inlineStr"/>
       <c r="D302" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1759-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1809-s.jpeg</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/mono_rozy/duo-buket-iz-roz-mandarin-i-kustovykh-roz-razmer-s.html</t>
+          <t>https://gift2gift.ru/catalog/monobukety/buket-iz-gortenzii-razmer-s_.html</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Букет роз Country Blues, размер M</t>
+          <t>Букетз из гортензии, размер S</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>5520</v>
+        <v>1900</v>
       </c>
       <c r="C303" t="inlineStr"/>
       <c r="D303" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1760-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1810-s.jpeg</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/mono_rozy/buket-roz-country-blues-razmer-m.html</t>
+          <t>https://gift2gift.ru/catalog/monobukety/buketz-iz-gortenzii-razmer-s.html</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Дуо-букет из альстромерии и диантусов, размер S</t>
+          <t>Цветочная композиция для кензана</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>2800</v>
+        <v>2375</v>
       </c>
       <c r="C304" t="inlineStr"/>
       <c r="D304" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1761-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1811-s.jpeg</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/duo-buket-iz-alstromerii-i-diantusov-razdel-s.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/tsvetochnaya-kompozitsiya-dlya-kenzana.html</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Дуо-букет из альстромерии и диантусов, размер M</t>
+          <t>Цветочная композиция для кензана</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>3950</v>
+        <v>3210</v>
       </c>
       <c r="C305" t="inlineStr"/>
       <c r="D305" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1762-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1812-s.jpeg</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/duo-buket-iz-alstromerii-i-diantusov-razmer-m.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/tsvetochnaya-kompozitsiya-dlya-kenzana_.html</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Дуо-букет из гортензии и диантусов, размер S</t>
+          <t>Букет 1846</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>2850</v>
+        <v>4525</v>
       </c>
       <c r="C306" t="inlineStr"/>
       <c r="D306" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1763-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1846-s.jpeg</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/duo-buket-iz-gortenzii-i-diantusov-razmer-s.html</t>
+          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/__________________________________________________________________________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Дуо-букет из гортензии и диантусов, размер M</t>
+          <t>Букет 1848</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>3800</v>
+        <v>5010</v>
       </c>
       <c r="C307" t="inlineStr"/>
       <c r="D307" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1764-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1848-s.jpeg</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/duo-buket-iz-gortenzii-i-diantusov-razmer-m.html</t>
+          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/___________________________________________________________________________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Дуо-букет из диантусов и танацетума,размер S</t>
+          <t>Букет 1850</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>2125</v>
+        <v>6790</v>
       </c>
       <c r="C308" t="inlineStr"/>
       <c r="D308" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1765-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1850-s.jpeg</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/duo-buket-iz-diantusov-i-tanatsetuma-razmer-s.html</t>
+          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/____________________________________________________________________________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Дуо-букет из диантусов и танацетума,размер S</t>
+          <t>Букет 1851</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>2125</v>
+        <v>2265</v>
       </c>
       <c r="C309" t="inlineStr"/>
       <c r="D309" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1766-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1851-s.jpeg</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/duo-buket-iz-diantusov-i-tanatsetuma-razmer-s_.html</t>
+          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/_____________________________________________________________________________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Композиция 1767</t>
+          <t>Букет 1852</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>2085</v>
+        <v>3600</v>
       </c>
       <c r="C310" t="inlineStr"/>
       <c r="D310" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1767-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1852-s.jpeg</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/kompozitsiya____________________________.html</t>
+          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/______________________________________________________________________________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Дуо-букет из гортензии и кустовых роз, размер S</t>
+          <t>Букет 1856</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>3150</v>
+        <v>2850</v>
       </c>
       <c r="C311" t="inlineStr"/>
       <c r="D311" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1797-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1856-s.jpeg</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/duo-buket-iz-gortenzii-i-kustovykh-roz-razmer-s.html</t>
+          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/_________________________________________________________________________________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Дуо-букет из гортензии и кустовых роз, размер M</t>
+          <t>Букет 1857</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>6249</v>
+        <v>3250</v>
       </c>
       <c r="C312" t="inlineStr"/>
       <c r="D312" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1798-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1857-s.jpeg</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/duo-buket-iz-gortenzii-i-kustovykh-roz-razmer-m.html</t>
+          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/__________________________________________________________________________________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="313">
-      <c r="A313" t="inlineStr">
-        <is>
-          <t>Дуо-букет из гортензии и танацетума, размер S</t>
-        </is>
-      </c>
+      <c r="A313" t="inlineStr"/>
       <c r="B313" t="n">
-        <v>1850</v>
+        <v>2250</v>
       </c>
       <c r="C313" t="inlineStr"/>
       <c r="D313" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1799-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1858-s.jpeg</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/duo-buket-iz-gortenzii-i-tanatsetuma-razmer-s.html</t>
+          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/___________________________________________________________________________________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Дуо-букет из гортензии и танацетума, размер М</t>
+          <t>1859</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>2575</v>
+        <v>2155</v>
       </c>
       <c r="C314" t="inlineStr"/>
       <c r="D314" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1800-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1859-s.jpeg</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/____________________________________________________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/____________________________________________________________________________________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Моно-букет из кустовой розы Lady Bombastic, размер M</t>
+          <t>1860</t>
         </is>
       </c>
       <c r="B315" t="n">
@@ -7045,953 +7041,873 @@
       <c r="C315" t="inlineStr"/>
       <c r="D315" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1806-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1860-s.jpeg</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/mono_rozy/mono-buket-iz-kustovoi-rozy-lady-bombastic-razmer-m.html</t>
+          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/_____________________________________________________________________________________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Букет из гортензий, размер S</t>
+          <t>Букет 1155</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>2100</v>
+        <v>3200</v>
       </c>
       <c r="C316" t="inlineStr"/>
       <c r="D316" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1809-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1864-s.jpeg</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/monobukety/buket-iz-gortenzii-razmer-s_.html</t>
+          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/buket-1155_.html</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Букетз из гортензии, размер S</t>
+          <t>Букет 1865</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>2100</v>
+        <v>3750</v>
       </c>
       <c r="C317" t="inlineStr"/>
       <c r="D317" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1810-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1865-s.jpeg</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/monobukety/buketz-iz-gortenzii-razmer-s.html</t>
+          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/buket-2089.html</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Цветочная композиция для кензана</t>
+          <t>Букет 2078</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>2410</v>
+        <v>3300</v>
       </c>
       <c r="C318" t="inlineStr"/>
       <c r="D318" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1811-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1867-s.jpeg</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/tsvetochnaya-kompozitsiya-dlya-kenzana.html</t>
+          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/buket-2078.html</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Цветочная композиция для кензана</t>
+          <t>Букет 527</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>3020</v>
+        <v>3460</v>
       </c>
       <c r="C319" t="inlineStr"/>
       <c r="D319" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1812-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1868-s.jpeg</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-2000-do-3000/tsvetochnaya-kompozitsiya-dlya-kenzana_.html</t>
+          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/buket-2081.html</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Букет 1846</t>
+          <t>1870</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>4175</v>
+        <v>3250</v>
       </c>
       <c r="C320" t="inlineStr"/>
       <c r="D320" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1846-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1870-s.jpeg</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/__________________________________________________________________________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/_______________________________________________________________________________________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Букет 1848</t>
+          <t>1872</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>4760</v>
+        <v>2950</v>
       </c>
       <c r="C321" t="inlineStr"/>
       <c r="D321" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1848-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1872-s.jpeg</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/___________________________________________________________________________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/________________________________________________________________________________________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Букет 1850</t>
+          <t>1873</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>6500</v>
+        <v>4100</v>
       </c>
       <c r="C322" t="inlineStr"/>
       <c r="D322" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1850-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1873-s.jpeg</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/____________________________________________________________________________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/_________________________________________________________________________________________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Букет 1851</t>
+          <t>Букет 2090</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>2315</v>
+        <v>4000</v>
       </c>
       <c r="C323" t="inlineStr"/>
       <c r="D323" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1851-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1875-s.jpeg</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/_____________________________________________________________________________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/buket-2090.html</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Букет 1852</t>
+          <t>Букет 1876</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>3490</v>
+        <v>3725</v>
       </c>
       <c r="C324" t="inlineStr"/>
       <c r="D324" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1852-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1876-s.jpeg</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/______________________________________________________________________________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/buket-2091.html</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Букет 1856</t>
+          <t>1883</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>2700</v>
+        <v>4100</v>
       </c>
       <c r="C325" t="inlineStr"/>
       <c r="D325" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1856-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/1883-s.jpeg</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/_________________________________________________________________________________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/__________________________________________________________________________________________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Букет 1857</t>
+          <t>Оригинальная игрушка Лабубу</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>3040</v>
+        <v>6500</v>
       </c>
       <c r="C326" t="inlineStr"/>
       <c r="D326" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1857-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/2063-s.jpeg</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/__________________________________________________________________________________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/aksessuary-i-otkrytki/labubu.html</t>
         </is>
       </c>
     </row>
     <row r="327">
-      <c r="A327" t="inlineStr"/>
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Сборный букет №102</t>
+        </is>
+      </c>
       <c r="B327" t="n">
-        <v>2400</v>
+        <v>5250</v>
       </c>
       <c r="C327" t="inlineStr"/>
       <c r="D327" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1858-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/2189-s.jpeg</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/___________________________________________________________________________________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/mono_rozy/sbornyi-buket-102.html</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>1859</t>
+          <t>Сборный букет №103</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>2005</v>
+        <v>6250</v>
       </c>
       <c r="C328" t="inlineStr"/>
       <c r="D328" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1859-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/2190-s.jpeg</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/____________________________________________________________________________________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/mono_rozy/sbornyi-buket-103.html</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>1860</t>
+          <t>Сборный букет №104</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>4450</v>
+        <v>4800</v>
       </c>
       <c r="C329" t="inlineStr"/>
       <c r="D329" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1860-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/2191-s.jpeg</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/_____________________________________________________________________________________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/sbornyi-buket-104.html</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Букет 1155</t>
+          <t>Сборный букет №105</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>3075</v>
+        <v>5500</v>
       </c>
       <c r="C330" t="inlineStr"/>
       <c r="D330" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1864-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/2215-s.jpeg</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/buket-1155_.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-svyshe-5000/sbornyi-buket-105.html</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Букет 1865</t>
+          <t>Сборный букет №106</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>3620</v>
+        <v>5600</v>
       </c>
       <c r="C331" t="inlineStr"/>
       <c r="D331" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1865-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/2216-s.jpeg</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/buket-2089.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/sbornyi-buket-106.html</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Букет 2078</t>
+          <t>Оригинальная игрушка Стич</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>3400</v>
+        <v>5000</v>
       </c>
       <c r="C332" t="inlineStr"/>
       <c r="D332" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1867-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/2221-s.jpeg</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/buket-2078.html</t>
+          <t>https://gift2gift.ru/catalog/aksessuary-i-otkrytki/originalnaya-igrushka-stich.html</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Букет 527</t>
+          <t>Сборный букет №107</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>3460</v>
+        <v>4325</v>
       </c>
       <c r="C333" t="inlineStr"/>
       <c r="D333" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1868-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/2237-s.jpeg</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/buket-2081.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/sbornyi-buket-107.html</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>1870</t>
+          <t>Сборный букет №108</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>3040</v>
+        <v>4560</v>
       </c>
       <c r="C334" t="inlineStr"/>
       <c r="D334" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1870-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/2238-s.jpeg</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/_______________________________________________________________________________________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety/sbornyi-buket-108.html</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>1872</t>
+          <t>Букет 2243</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>2925</v>
+        <v>5150</v>
       </c>
       <c r="C335" t="inlineStr"/>
       <c r="D335" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1872-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/2243-s.jpeg</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/________________________________________________________________________________________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/_______________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>1873</t>
+          <t>Букет 2244</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>4050</v>
+        <v>3950</v>
       </c>
       <c r="C336" t="inlineStr"/>
       <c r="D336" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1873-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/2244-s.jpeg</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/_________________________________________________________________________________________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/_______________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Букет 2090</t>
+          <t>Букет 2264</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>3800</v>
+        <v>5100</v>
       </c>
       <c r="C337" t="inlineStr"/>
       <c r="D337" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1875-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/2264-s.jpeg</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/buket-2090.html</t>
+          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/_______________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Букет 1876</t>
+          <t>Букет 2265</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>3660</v>
+        <v>3050</v>
       </c>
       <c r="C338" t="inlineStr"/>
       <c r="D338" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1876-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/2265-s.jpeg</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/buket-2091.html</t>
+          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/_______________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>1883</t>
+          <t>Букет 2286</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>4050</v>
+        <v>4500</v>
       </c>
       <c r="C339" t="inlineStr"/>
       <c r="D339" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/1883-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/2286-s.jpeg</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/__________________________________________________________________________________________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/_______________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Оригинальная игрушка Лабубу</t>
+          <t>Букет 2287</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>6500</v>
+        <v>4300</v>
       </c>
       <c r="C340" t="inlineStr"/>
       <c r="D340" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/2063-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/2287-s.jpeg</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/aksessuary-i-otkrytki/labubu.html</t>
+          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/_______________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Сборный букет №102</t>
+          <t>Сборный букет №111</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>5520</v>
+        <v>4300</v>
       </c>
       <c r="C341" t="inlineStr"/>
       <c r="D341" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/2189-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/2300-s.jpeg</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/mono_rozy/sbornyi-buket-102.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/sbornyi-buket-111.html</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Сборный букет №103</t>
+          <t>Сборный букет №112</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>6200</v>
+        <v>4500</v>
       </c>
       <c r="C342" t="inlineStr"/>
       <c r="D342" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/2190-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/2301-s.jpeg</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/mono_rozy/sbornyi-buket-103.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/sbornyi-buket-112.html</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Сборный букет №104</t>
+          <t>Композиция 111</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>4900</v>
+        <v>3240</v>
       </c>
       <c r="C343" t="inlineStr"/>
       <c r="D343" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/2191-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/2302-s.jpeg</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/sbornyi-buket-104.html</t>
+          <t>https://gift2gift.ru/catalog/cvety_v_korobke/kompozitsiya-111.html</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Сборный букет №105</t>
+          <t>Композиция 112</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>5820</v>
+        <v>2685</v>
       </c>
       <c r="C344" t="inlineStr"/>
       <c r="D344" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/2215-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/2303-s.jpeg</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-svyshe-5000/sbornyi-buket-105.html</t>
+          <t>https://gift2gift.ru/catalog/cvety_v_korobke/kompozitsiya-112.html</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Сборный букет №106</t>
+          <t>Композиция 113</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>5410</v>
+        <v>2430</v>
       </c>
       <c r="C345" t="inlineStr"/>
       <c r="D345" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/2216-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/2304-s.jpeg</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/sbornyi-buket-106.html</t>
+          <t>https://gift2gift.ru/catalog/cvety_v_korobke/kompozitsiya-113.html</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Оригинальная игрушка Стич</t>
+          <t>Композиция 114</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>5000</v>
+        <v>2280</v>
       </c>
       <c r="C346" t="inlineStr"/>
       <c r="D346" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/2221-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/2305-s.jpeg</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/aksessuary-i-otkrytki/originalnaya-igrushka-stich.html</t>
+          <t>https://gift2gift.ru/catalog/cvety_v_korobke/_______________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Сборный букет №107</t>
+          <t>Букет 2317</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>4280</v>
+        <v>2800</v>
       </c>
       <c r="C347" t="inlineStr"/>
       <c r="D347" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/2237-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/2317-s.jpeg</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/sbornyi-buket-107.html</t>
+          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/_______________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Сборный букет №108</t>
+          <t>Букет из кустовых роз Miss Bombastic, размер М</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>4150</v>
+        <v>4600</v>
       </c>
       <c r="C348" t="inlineStr"/>
       <c r="D348" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/2238-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/2328-s.jpeg</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety/sbornyi-buket-108.html</t>
+          <t>https://gift2gift.ru/catalog/monobukety/buket-iz-kustovykh-roz-miss-bombastic-razmer-m.html</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Букет 2243</t>
+          <t>Моно букет из Frutetto размера М</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>4750</v>
+        <v>3250</v>
       </c>
       <c r="C349" t="inlineStr"/>
       <c r="D349" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/2243-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/2331-s.jpeg</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/_______________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/monobukety/mono-buket-iz-frutetto-razmera-m.html</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Букет 2244</t>
+          <t>Моно букет из Playa Blanсa размера М</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>3900</v>
+        <v>3600</v>
       </c>
       <c r="C350" t="inlineStr"/>
       <c r="D350" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/2244-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/2332-s.jpeg</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/_______________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/monobukety/mono-buket-iz-playa-blansa-razmera-m.html</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Букет 2264</t>
+          <t>Букет из роз Explorer, размер L</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>5050</v>
+        <v>4350</v>
       </c>
       <c r="C351" t="inlineStr"/>
       <c r="D351" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/2264-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/2376-s.jpeg</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/_______________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/mono_rozy/buket-iz-roz-explorer-razmer-l.html</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Букет 2265</t>
+          <t>Дуо-букет из роз Playa Blanca и кустовых роз , размер S</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>2735</v>
+        <v>3350</v>
       </c>
       <c r="C352" t="inlineStr"/>
       <c r="D352" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/2265-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/2386-s.jpeg</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/_______________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/mono_rozy/duo-buket-iz-roz-playa-i-kustovykh-roz-razmer-s.html</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Букет 2286</t>
+          <t>Сборный букет №113</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>4600</v>
+        <v>4975</v>
       </c>
       <c r="C353" t="inlineStr"/>
       <c r="D353" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/2286-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/2456-s.jpeg</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/_______________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/sbornyi-buket-113.html</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Букет 2287</t>
+          <t>Дуо-букет из County Blues и Lady Bombastic</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>4250</v>
+        <v>6825</v>
       </c>
       <c r="C354" t="inlineStr"/>
       <c r="D354" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/2287-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/2474-s.jpeg</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/vitrina-bukety-v-nalichii-pryamo-seichas/_______________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/mono_rozy/_______________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________.html</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Сборный букет №111</t>
+          <t>Дуо-букет из роз Frutetto и альстромерий, размер М</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>4250</v>
+        <v>3650</v>
       </c>
       <c r="C355" t="inlineStr"/>
       <c r="D355" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/2300-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/2477-s.jpeg</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/sbornyi-buket-111.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/duo-buket-iz-roz-frutetto-i-alstromerii-razmer-m.html</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Сборный букет №112</t>
+          <t>Сборный букет №114</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>4600</v>
+        <v>3800</v>
       </c>
       <c r="C356" t="inlineStr"/>
       <c r="D356" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/img/work/nomencl/2301-s.jpeg</t>
+          <t>https://gift2gift.ru/img/work/nomencl/2478-s.jpeg</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/sbornyi-buket-112.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="inlineStr">
-        <is>
-          <t>Композиция 111</t>
-        </is>
-      </c>
-      <c r="B357" t="n">
-        <v>2730</v>
-      </c>
-      <c r="C357" t="inlineStr"/>
-      <c r="D357" t="inlineStr">
-        <is>
-          <t>https://gift2gift.ru/img/work/nomencl/2302-s.jpeg</t>
-        </is>
-      </c>
-      <c r="E357" t="inlineStr">
-        <is>
-          <t>https://gift2gift.ru/catalog/cvety_v_korobke/kompozitsiya-111.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="inlineStr">
-        <is>
-          <t>Композиция 112</t>
-        </is>
-      </c>
-      <c r="B358" t="n">
-        <v>2545</v>
-      </c>
-      <c r="C358" t="inlineStr"/>
-      <c r="D358" t="inlineStr">
-        <is>
-          <t>https://gift2gift.ru/img/work/nomencl/2303-s.jpeg</t>
-        </is>
-      </c>
-      <c r="E358" t="inlineStr">
-        <is>
-          <t>https://gift2gift.ru/catalog/cvety_v_korobke/kompozitsiya-112.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="inlineStr">
-        <is>
-          <t>Композиция 113</t>
-        </is>
-      </c>
-      <c r="B359" t="n">
-        <v>2370</v>
-      </c>
-      <c r="C359" t="inlineStr"/>
-      <c r="D359" t="inlineStr">
-        <is>
-          <t>https://gift2gift.ru/img/work/nomencl/2304-s.jpeg</t>
-        </is>
-      </c>
-      <c r="E359" t="inlineStr">
-        <is>
-          <t>https://gift2gift.ru/catalog/cvety_v_korobke/kompozitsiya-113.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="inlineStr">
-        <is>
-          <t>Композиция 114</t>
-        </is>
-      </c>
-      <c r="B360" t="n">
-        <v>2170</v>
-      </c>
-      <c r="C360" t="inlineStr"/>
-      <c r="D360" t="inlineStr">
-        <is>
-          <t>https://gift2gift.ru/img/work/nomencl/2305-s.jpeg</t>
-        </is>
-      </c>
-      <c r="E360" t="inlineStr">
-        <is>
-          <t>https://gift2gift.ru/catalog/cvety_v_korobke/_______________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________________.html</t>
+          <t>https://gift2gift.ru/catalog/bukety-ot-3000-do-4000/sbornyi-buket-114.html</t>
         </is>
       </c>
     </row>
